--- a/scales (1).xlsx
+++ b/scales (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{5E0B1562-735E-47B3-8F5F-0B71DA3DA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FB01A41-DF49-4ABD-AEEA-FCC16FB28CC7}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{5E0B1562-735E-47B3-8F5F-0B71DA3DA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E925F532-407A-47BB-8C55-320EF17E176B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-7630" yWindow="2650" windowWidth="13700" windowHeight="7810" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView minimized="1" xWindow="1700" yWindow="2910" windowWidth="13700" windowHeight="7810" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="83">
   <si>
     <t>Motrice</t>
   </si>
@@ -284,6 +284,9 @@
   <si>
     <t>Erreur Taplen</t>
   </si>
+  <si>
+    <t>Colonne12</t>
+  </si>
 </sst>
 </file>
 
@@ -471,7 +474,7 @@
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -510,9 +513,12 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -906,6 +912,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="9" tint="0.79998168889431442"/>
@@ -1842,10 +1865,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1870,7 +1893,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>CV TPV / Vmax</a:t>
+              <a:t>Impulsivité motrice / moy Go/NoGo</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1925,11 +1948,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1939,7 +1962,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -1953,7 +1976,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -1965,8 +1988,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40945647419072617"/>
-                  <c:y val="-6.3435039370078744E-2"/>
+                  <c:x val="-4.7483595800524935E-2"/>
+                  <c:y val="-0.26563466025080196"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2001,174 +2024,39 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$C$2:$C$28</c:f>
+              <c:f>BPS!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1244.5</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>727.68</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1276.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$X$2:$X$28</c:f>
+              <c:f>BPS!$J$2:$J$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.10500000000000001</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19488530843536417</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2987388657769145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2635723605504261</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.3769617948418891E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16840344988893338</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.27130752388374324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1475549402808192</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.215</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.22618618391532119</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12574829784647523</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.20500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.10840508583399006</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.11</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,7 +2064,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9791-4900-804D-63BDFF2BFFAA}"/>
+              <c16:uniqueId val="{00000000-3078-4286-878D-10C174B1FB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2188,13 +2076,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1880903376"/>
-        <c:axId val="1880906288"/>
+        <c:axId val="1451621616"/>
+        <c:axId val="1451607472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1880903376"/>
+        <c:axId val="1451621616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2235,18 +2124,19 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880906288"/>
+        <c:crossAx val="1451607472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1880906288"/>
+        <c:axId val="1451607472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2283,7 +2173,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1880903376"/>
+        <c:crossAx val="1451621616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2340,6 +2230,391 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Moy GoNoGo / RT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31161986001749781"/>
+                  <c:y val="1.3472222222222222E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BPS!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BPS!$M$2:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8E0-4E5A-9087-BBEDBBD4A66B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1559954944"/>
+        <c:axId val="1559951616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1559954944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559951616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1559951616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559954944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2419,7 +2694,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2603,7 +2878,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2854,7 +3129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2934,7 +3209,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3118,7 +3393,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3369,7 +3644,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3449,7 +3724,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3633,7 +3908,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3884,7 +4159,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3964,7 +4239,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4148,7 +4423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4399,7 +4674,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4479,7 +4754,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4613,7 +4888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4864,7 +5139,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4944,7 +5219,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5110,7 +5385,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$21</c:f>
+              <c:f>Perso!$AB$2:$AB$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5343,7 +5618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5423,7 +5698,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5557,7 +5832,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5753,471 +6028,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1004968704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Rêveur Pragmatique / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$K$2:$K$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>5.3409090909090913E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-25C2-455A-BF45-44716004C682}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1073925040"/>
-        <c:axId val="1073921712"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1073925040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1073921712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1073921712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1073925040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6826,6 +6636,471 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
+              <a:t>Rêveur Pragmatique / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$K$2:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>5.3409090909090913E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25C2-455A-BF45-44716004C682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1073925040"/>
+        <c:axId val="1073921712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1073925040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073921712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1073921712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1073925040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
               <a:t>souple intransigeant / VMN</a:t>
             </a:r>
           </a:p>
@@ -6871,7 +7146,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7005,7 +7280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -7256,7 +7531,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7336,7 +7611,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7470,7 +7745,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -7721,7 +7996,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7801,7 +8076,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7935,7 +8210,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -8186,7 +8461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8266,7 +8541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8436,7 +8711,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -8687,7 +8962,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8775,7 +9050,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8895,7 +9170,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -9146,7 +9421,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9226,7 +9501,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9360,7 +9635,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -9611,7 +9886,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9699,7 +9974,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9833,7 +10108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -10084,7 +10359,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10164,7 +10439,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10334,7 +10609,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -10585,7 +10860,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10665,7 +10940,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10799,7 +11074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -10995,515 +11270,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1268997968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Minutieux</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> Grossier / </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.5030621172353459E-3"/>
-                  <c:y val="0.23469779819189268"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$V$2:$V$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>5.113636363636364E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>9.0909090909090912E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E47-4B33-84A9-F75CD43146CC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1177690720"/>
-        <c:axId val="1177709440"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1177690720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177709440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1177709440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177690720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12097,6 +11863,515 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Minutieux</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Grossier / </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5030621172353459E-3"/>
+                  <c:y val="0.23469779819189268"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$V$2:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>5.113636363636364E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E47-4B33-84A9-F75CD43146CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1177690720"/>
+        <c:axId val="1177709440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1177690720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177709440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1177709440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177690720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Extraverti Introverti / VMN</a:t>
             </a:r>
@@ -12143,7 +12418,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12240,7 +12515,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$W$2:$W$27</c:f>
+              <c:f>Perso!$X$2:$X$27</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
@@ -12327,7 +12602,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -12578,7 +12853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -12658,7 +12933,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12705,7 +12980,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$X$2:$X$27</c:f>
+              <c:f>Perso!$Y$2:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
@@ -12792,7 +13067,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -13043,7 +13318,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -13123,7 +13398,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13170,7 +13445,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$Y$2:$Y$27</c:f>
+              <c:f>Perso!$Z$2:$Z$27</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
@@ -13257,7 +13532,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -13508,7 +13783,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -13596,7 +13871,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perso!$AA$1</c:f>
+              <c:f>Perso!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13679,7 +13954,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Perso!$Z$2:$Z$27</c:f>
+              <c:f>Perso!$AA$2:$AA$27</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
@@ -13766,7 +14041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Perso!$AA$2:$AA$27</c:f>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -14639,6 +14914,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-B223-498E-8675-1C0244D64DF5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -17069,82 +17349,14 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -18068,6 +18280,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32240,6 +32492,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -35489,16 +36257,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85435</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>756710</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>178568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>231776</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151343</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>175683</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35525,16 +36293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>508042</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>66427</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>508042</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47789</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38058</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35561,16 +36329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>105641</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>55418</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>29028</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35634,15 +36402,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>26459</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35670,15 +36438,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>138641</xdr:rowOff>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35705,23 +36473,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>48683</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Graphique 8">
+        <xdr:cNvPr id="6" name="Graphique 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA432424-6A8B-4F36-8D47-AB215E585439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545185B6-A587-440D-8FDB-FC7956B29CA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35734,6 +36502,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADD8DC9-87AF-49D7-B7EE-A6C10DDC98AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35932,7 +36736,7 @@
       <xdr:rowOff>24679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>543359</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>100879</xdr:rowOff>
@@ -36148,7 +36952,7 @@
       <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>674688</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
@@ -36364,7 +37168,7 @@
       <xdr:rowOff>144463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>547688</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>30163</xdr:rowOff>
@@ -36508,7 +37312,7 @@
       <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>468313</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
@@ -36546,7 +37350,7 @@
     <sortCondition ref="A1:A28"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F54F0C8C-2076-4A61-AE16-18A827F212DF}" name="Colonne1" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{F54F0C8C-2076-4A61-AE16-18A827F212DF}" name="Colonne1" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{BD667728-D6B6-42B4-8FEC-C363F347CABC}" name="Motrice"/>
     <tableColumn id="3" xr3:uid="{090B82D9-34A0-47DB-BBC2-EBFF78F2A348}" name="Cognitive"/>
     <tableColumn id="4" xr3:uid="{D45F49B8-FDB2-4871-B181-96D2B3D0AD51}" name="Non-Planning"/>
@@ -36555,20 +37359,20 @@
     <tableColumn id="7" xr3:uid="{3D2CADA8-7AAC-4CD0-BE82-D1827E3D9A4C}" name="TPVDN"/>
     <tableColumn id="8" xr3:uid="{241F374D-960A-4D63-87EA-CE91FBD1A785}" name="TPVUN"/>
     <tableColumn id="9" xr3:uid="{D9F4B8A7-315E-4C55-A449-22EECB963E45}" name="CV Vmax normal"/>
-    <tableColumn id="11" xr3:uid="{0DAD4827-9160-469F-BA45-55EA240B1EF2}" name="CV TPV normal" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{4101A321-03D5-4761-9609-5DFD1E5F8B6B}" name="Sujets" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{0DAD4827-9160-469F-BA45-55EA240B1EF2}" name="CV TPV normal" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{4101A321-03D5-4761-9609-5DFD1E5F8B6B}" name="Sujets" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:Y28" totalsRowShown="0">
-  <autoFilter ref="A1:Y28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:AA28" totalsRowShown="0">
+  <autoFilter ref="A1:AA28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA28">
     <sortCondition ref="M1:M28"/>
   </sortState>
-  <tableColumns count="25">
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
     <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
@@ -36596,44 +37400,47 @@
     <tableColumn id="22" xr3:uid="{903089D6-8D2E-4057-800B-A5D8C740BAF4}" name="CV Vmax normal" dataDxfId="2"/>
     <tableColumn id="23" xr3:uid="{15A9FF45-EF7F-4817-B991-D3346021A920}" name="CV TPV normal" dataDxfId="1"/>
     <tableColumn id="24" xr3:uid="{244E1218-D64D-449E-9B5B-E757C48AC394}" name="Sujets" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{69D7DBBC-EE2E-4C00-906A-E7409599239D}" name="Colonne12"/>
+    <tableColumn id="27" xr3:uid="{FD017DFD-5C70-4F2B-A739-F52B68C2E40A}" name="Extraverti/Introverti"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AA27" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="A1:AA27" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AB27" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A1:AB27" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB27">
     <sortCondition ref="A1:A27"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="32"/>
-    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="16"/>
-    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="7"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="31"/>
+    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{28F7869E-4218-4A38-B4E7-6F7BC0E9C753}" name="Colonne12" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="6"/>
     <tableColumn id="25" xr3:uid="{D6260960-9238-4F09-91AD-EDE247C55825}" name="VMN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -37817,11 +38624,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37830,7 +38637,7 @@
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -37906,8 +38713,14 @@
       <c r="Y1" t="s">
         <v>73</v>
       </c>
+      <c r="Z1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
@@ -37982,8 +38795,14 @@
       <c r="Y2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="Z2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2">
+        <v>9.4318181818181829E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>67</v>
       </c>
@@ -38020,7 +38839,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>59</v>
       </c>
@@ -38091,8 +38910,14 @@
       <c r="Y4" s="13" t="s">
         <v>59</v>
       </c>
+      <c r="Z4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -38168,8 +38993,14 @@
       <c r="Y5" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="Z5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>0.30681818181818182</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>48</v>
       </c>
@@ -38228,8 +39059,14 @@
       <c r="Y6" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="Z6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -38282,8 +39119,14 @@
       <c r="Y7" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="Z7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -38336,8 +39179,14 @@
       <c r="Y8" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="Z8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
@@ -38390,8 +39239,14 @@
       <c r="Y9" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="Z9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -38444,8 +39299,14 @@
       <c r="Y10" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="Z10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -38498,8 +39359,14 @@
       <c r="Y11" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="Z11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>49</v>
       </c>
@@ -38552,8 +39419,14 @@
       <c r="Y12" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="Z12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>46</v>
       </c>
@@ -38606,8 +39479,14 @@
       <c r="Y13" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="Z13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -38660,8 +39539,14 @@
       <c r="Y14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="Z14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -38714,8 +39599,14 @@
       <c r="Y15" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="Z15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA15">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -38768,8 +39659,14 @@
       <c r="Y16" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="Z16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA16">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -38822,8 +39719,14 @@
       <c r="Y17" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="Z17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA17">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>57</v>
       </c>
@@ -38876,8 +39779,14 @@
       <c r="Y18" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="Z18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA18">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>43</v>
       </c>
@@ -38930,8 +39839,14 @@
       <c r="Y19" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="Z19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -38984,8 +39899,14 @@
       <c r="Y20" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="Z20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -39038,8 +39959,14 @@
       <c r="Y21" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="Z21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -39092,8 +40019,14 @@
       <c r="Y22" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="Z22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA22">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -39146,8 +40079,14 @@
       <c r="Y23" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="Z23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA23">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -39200,8 +40139,14 @@
       <c r="Y24" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="Z24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA24">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -39254,8 +40199,14 @@
       <c r="Y25" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -39308,8 +40259,14 @@
       <c r="Y26" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="Z26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -39362,8 +40319,14 @@
       <c r="Y27" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="Z27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA27">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>40</v>
       </c>
@@ -39416,8 +40379,15 @@
       <c r="Y28" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="Z28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -39428,10 +40398,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39456,12 +40426,12 @@
     <col min="18" max="19" width="19.6328125" customWidth="1"/>
     <col min="20" max="20" width="20.453125" customWidth="1"/>
     <col min="21" max="21" width="20.36328125" customWidth="1"/>
-    <col min="22" max="22" width="23.81640625" customWidth="1"/>
-    <col min="23" max="23" width="22.7265625" customWidth="1"/>
-    <col min="24" max="24" width="15.1796875" customWidth="1"/>
+    <col min="22" max="23" width="23.81640625" customWidth="1"/>
+    <col min="24" max="24" width="22.7265625" customWidth="1"/>
+    <col min="25" max="25" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -39529,22 +40499,25 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>59</v>
       </c>
@@ -39611,23 +40584,26 @@
       <c r="V2" s="8">
         <v>0.5</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="8">
         <v>0.5</v>
       </c>
-      <c r="X2" s="8">
+      <c r="Y2" s="8">
         <v>0.4</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>0.3</v>
       </c>
       <c r="Z2" s="8">
         <v>0.3</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AB2">
         <v>727.68</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
@@ -39694,23 +40670,26 @@
       <c r="V3" s="22">
         <v>0.2</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="22">
         <v>0.5</v>
       </c>
-      <c r="X3" s="22">
+      <c r="Y3" s="22">
         <v>0.3</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Z3" s="22">
         <v>0.4</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="AA3" s="22">
         <v>0.2</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>555.07000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>28</v>
       </c>
@@ -39794,27 +40773,30 @@
         <f>4.5/88</f>
         <v>5.113636363636364E-2</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="21">
         <f>8.3/88</f>
         <v>9.4318181818181829E-2</v>
       </c>
-      <c r="X4" s="21">
+      <c r="Y4" s="21">
         <f>5.4/88</f>
         <v>6.136363636363637E-2</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Z4" s="21">
         <f>7.8/88</f>
         <v>8.8636363636363638E-2</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="AA4" s="21">
         <f>1.3/88</f>
         <v>1.4772727272727272E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1244.5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -39879,23 +40861,26 @@
       <c r="V5" s="5">
         <v>0.4</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="5">
         <v>0.2</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Y5" s="5">
         <v>0.3</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="5">
         <v>0.8</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <v>0.1</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>952.27</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -39960,23 +40945,26 @@
       <c r="V6" s="6">
         <v>0.7</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="6">
         <v>0.8</v>
       </c>
-      <c r="X6" s="6">
+      <c r="Y6" s="6">
         <v>0.4</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Z6" s="6">
         <v>1</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <v>0.3</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1012.32</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>47</v>
       </c>
@@ -40041,23 +41029,26 @@
       <c r="V7" s="5">
         <v>0.2</v>
       </c>
-      <c r="W7" s="5">
-        <v>0.6</v>
+      <c r="W7" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="X7" s="5">
         <v>0.6</v>
       </c>
       <c r="Y7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Z7" s="5">
         <v>0.3</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AA7" s="5">
         <v>0.4</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>724.29</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -40122,8 +41113,8 @@
       <c r="V8" s="5">
         <v>0.1</v>
       </c>
-      <c r="W8" s="5">
-        <v>0.1</v>
+      <c r="W8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="X8" s="5">
         <v>0.1</v>
@@ -40134,11 +41125,14 @@
       <c r="Z8" s="5">
         <v>0.1</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB8">
         <v>1129.94</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -40203,23 +41197,26 @@
       <c r="V9" s="6">
         <v>0.3</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="6">
         <v>0.9</v>
       </c>
-      <c r="X9" s="6">
+      <c r="Y9" s="6">
         <v>0.2</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Z9" s="6">
         <v>0.1</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="AA9" s="6">
         <v>0.3</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1264.3399999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -40303,27 +41300,30 @@
         <f>8/88</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="21">
         <f>27/88</f>
         <v>0.30681818181818182</v>
       </c>
-      <c r="X10" s="21">
+      <c r="Y10" s="21">
         <f>25/88</f>
         <v>0.28409090909090912</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="Z10" s="21">
         <f>57/88</f>
         <v>0.64772727272727271</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="AA10" s="21">
         <f>5/88</f>
         <v>5.6818181818181816E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>808.85</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -40388,23 +41388,26 @@
       <c r="V11" s="5">
         <v>0.3</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" s="5">
         <v>0.8</v>
       </c>
-      <c r="X11" s="5">
+      <c r="Y11" s="5">
         <v>0.3</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>0.2</v>
       </c>
       <c r="Z11" s="5">
         <v>0.2</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AB11">
         <v>1627.89</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -40469,23 +41472,26 @@
       <c r="V12" s="6">
         <v>0.2</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="6">
         <v>0.4</v>
       </c>
-      <c r="X12" s="6">
+      <c r="Y12" s="6">
         <v>0.3</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Z12" s="6">
         <v>0.2</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AA12" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>440.17</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -40550,23 +41556,26 @@
       <c r="V13" s="5">
         <v>0.2</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="5">
         <v>0.5</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <v>0.3</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Z13" s="5">
         <v>0.2</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AA13" s="5">
         <v>0.3</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1411.91</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
@@ -40631,23 +41640,26 @@
       <c r="V14" s="5">
         <v>0.5</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="5">
         <v>0.4</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Y14" s="5">
         <v>0.3</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Z14" s="5">
         <v>0.8</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AA14" s="5">
         <v>0.2</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1183.1199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -40712,23 +41724,26 @@
       <c r="V15" s="5">
         <v>0.3</v>
       </c>
-      <c r="W15" s="5">
-        <v>0.2</v>
+      <c r="W15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="X15" s="5">
         <v>0.2</v>
       </c>
       <c r="Y15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z15" s="5">
         <v>0.4</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AA15" s="5">
         <v>0.2</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>641.14</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -40793,23 +41808,26 @@
       <c r="V16" s="5">
         <v>0.3</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" s="5">
         <v>0.6</v>
       </c>
-      <c r="X16" s="5">
+      <c r="Y16" s="5">
         <v>0.3</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Z16" s="5">
         <v>0.2</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AA16" s="5">
         <v>0.1</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1127.92</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
@@ -40874,23 +41892,26 @@
       <c r="V17" s="3">
         <v>0.2</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" s="3">
         <v>0.1</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>0.3</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>0.4</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>0.2</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>803.62</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>43</v>
       </c>
@@ -40955,23 +41976,26 @@
       <c r="V18" s="5">
         <v>0.1</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="5">
         <v>0.7</v>
       </c>
-      <c r="X18" s="5">
+      <c r="Y18" s="5">
         <v>0.1</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Z18" s="5">
         <v>0.4</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="AA18" s="5">
         <v>0.1</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>939.92</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -41036,23 +42060,26 @@
       <c r="V19" s="6">
         <v>0.2</v>
       </c>
-      <c r="W19" s="6">
-        <v>0.2</v>
+      <c r="W19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="X19" s="6">
         <v>0.2</v>
       </c>
       <c r="Y19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z19" s="6">
         <v>0.5</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="AA19" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>771.81</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -41117,23 +42144,26 @@
       <c r="V20" s="6">
         <v>0.3</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="6">
         <v>0.5</v>
       </c>
-      <c r="X20" s="6">
+      <c r="Y20" s="6">
         <v>0.2</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Z20" s="6">
         <v>0.8</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AA20" s="6">
         <v>0.4</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1266.79</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
@@ -41198,23 +42228,26 @@
       <c r="V21" s="3">
         <v>0.4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X21" s="3">
         <v>0.5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>0.3</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>0.2</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>0.1</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>828.46</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -41279,23 +42312,26 @@
       <c r="V22" s="6">
         <v>0.4</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" s="6">
         <v>0.5</v>
       </c>
-      <c r="X22" s="6">
+      <c r="Y22" s="6">
         <v>0.3</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Z22" s="6">
         <v>0.7</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AA22" s="6">
         <v>0.5</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1250.0999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -41360,23 +42396,26 @@
       <c r="V23" s="4">
         <v>0.5</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X23" s="4">
         <v>0.1</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Y23" s="4">
         <v>0.2</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Z23" s="4">
         <v>0.4</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AA23" s="4">
         <v>0.2</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>757.59</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
@@ -41441,11 +42480,11 @@
       <c r="V24" s="4">
         <v>0.3</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X24" s="4">
         <v>0.5</v>
-      </c>
-      <c r="X24" s="4">
-        <v>0.1</v>
       </c>
       <c r="Y24" s="4">
         <v>0.1</v>
@@ -41453,11 +42492,14 @@
       <c r="Z24" s="4">
         <v>0.1</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AB24">
         <v>1394.13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -41522,23 +42564,26 @@
       <c r="V25" s="6">
         <v>0.2</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X25" s="6">
         <v>0.8</v>
       </c>
-      <c r="X25" s="6">
+      <c r="Y25" s="6">
         <v>0.6</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Z25" s="6">
         <v>0.8</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AA25" s="6">
         <v>0.4</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1333.71</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -41603,23 +42648,26 @@
       <c r="V26" s="4">
         <v>0.3</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X26" s="4">
         <v>0.5</v>
       </c>
-      <c r="X26" s="4">
+      <c r="Y26" s="4">
         <v>0.3</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Z26" s="4">
         <v>0.9</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="AA26" s="4">
         <v>0.1</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1200.1400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>40</v>
       </c>
@@ -41684,23 +42732,26 @@
       <c r="V27" s="6">
         <v>0.5</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="6">
         <v>0.2</v>
       </c>
-      <c r="X27" s="6">
+      <c r="Y27" s="6">
         <v>0.3</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Z27" s="6">
         <v>0.5</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="AA27" s="6">
         <v>0.3</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1276.5</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -41724,8 +42775,9 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -41749,8 +42801,9 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -41774,8 +42827,9 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -41799,8 +42853,9 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -41824,8 +42879,9 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -41849,8 +42905,9 @@
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -41874,8 +42931,9 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -41899,8 +42957,9 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -41924,8 +42983,9 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -41949,8 +43009,9 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -41974,8 +43035,9 @@
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -41999,8 +43061,9 @@
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -42024,8 +43087,9 @@
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -42049,8 +43113,9 @@
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -42074,8 +43139,9 @@
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -42099,8 +43165,9 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -42124,6 +43191,7 @@
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/scales (1).xlsx
+++ b/scales (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{5E0B1562-735E-47B3-8F5F-0B71DA3DA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E925F532-407A-47BB-8C55-320EF17E176B}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{5E0B1562-735E-47B3-8F5F-0B71DA3DA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64069E34-740D-48B2-A84F-E71CCBBE9151}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1700" yWindow="2910" windowWidth="13700" windowHeight="7810" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="84">
   <si>
     <t>Motrice</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Non-Planning4</t>
   </si>
   <si>
-    <t>Total5</t>
-  </si>
-  <si>
     <t>VMN6</t>
   </si>
   <si>
@@ -286,6 +283,12 @@
   </si>
   <si>
     <t>Colonne12</t>
+  </si>
+  <si>
+    <t>Total2</t>
+  </si>
+  <si>
+    <t>réfléchit/ impulsif</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -426,12 +429,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -469,12 +481,138 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -499,26 +637,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -575,6 +693,26 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1655,16 +1793,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,16 +1814,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,16 +2167,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,12 +2188,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -2414,12 +2552,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -2432,16 +2570,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,6 +2786,876 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Extraversion/ Vmax</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37753932438828453"/>
+                  <c:y val="-0.15449321084118786"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BPS!$C$2:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BPS!$AA$2:$AA$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4318181818181829E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30681818181818182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A5F-4534-B329-F16C68E7DC77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="630675615"/>
+        <c:axId val="630673951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="630675615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630673951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="630673951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630675615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>CV GoNoGo / Tendance à l'ennui</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.6949256342957134E-2"/>
+                  <c:y val="0.39267789442986295"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BPS!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BPS!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC7F-4D80-8110-89F9F5D5BECA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="874106415"/>
+        <c:axId val="874109743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="874106415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874109743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="874109743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874106415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Patient impatient / VMN</a:t>
             </a:r>
@@ -3129,7 +4137,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3644,7 +4652,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4159,7 +5167,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4674,7 +5682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5084,950 +6092,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1062230016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Intuitif Logique / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.37442432195975506"/>
-                  <c:y val="0.22230898221055709"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$I$2:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>5.2272727272727269E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AB$2:$AB$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A39-4D5F-BCB7-27E5C9601893}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1026522016"/>
-        <c:axId val="1026527008"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1026522016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1026527008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1026527008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1026522016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Méthodique Désordonné / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$J$2:$J$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>5.2272727272727269E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.78409090909090906</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AB$2:$AB$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27D3-491D-8FE1-73E016C0741E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1004968704"/>
-        <c:axId val="1004969120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1004968704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1004969120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1004969120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1004968704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6636,6 +6700,950 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
+              <a:t>Intuitif Logique / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37442432195975506"/>
+                  <c:y val="0.22230898221055709"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>5.2272727272727269E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.52272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AB$2:$AB$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A39-4D5F-BCB7-27E5C9601893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1026522016"/>
+        <c:axId val="1026527008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1026522016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026527008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1026527008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026522016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Méthodique Désordonné / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$J$2:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>5.2272727272727269E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.78409090909090906</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27D3-491D-8FE1-73E016C0741E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1004968704"/>
+        <c:axId val="1004969120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1004968704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1004969120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1004969120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1004968704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
               <a:t>Rêveur Pragmatique / VMN</a:t>
             </a:r>
           </a:p>
@@ -7066,7 +8074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7531,7 +8539,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7996,7 +9004,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8461,7 +9469,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8962,7 +9970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9421,7 +10429,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9886,7 +10894,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10304,972 +11312,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1172490096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>En retard Ponctuel  /VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.3522020997375328"/>
-                  <c:y val="0.28054279673374161"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$T$2:$T$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>9.6590909090909088E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.40909090909090912</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AB$2:$AB$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-791E-48FC-8346-DC70F0F43B55}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="935818848"/>
-        <c:axId val="935838816"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="935818848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="935838816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="935838816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="935818848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Equilibré Instable / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$U$2:$U$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>9.0909090909090912E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AB$2:$AB$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F69-427A-8F9F-4F4A0D985B1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1268997968"/>
-        <c:axId val="1269003376"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1268997968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1269003376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1269003376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1268997968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11863,6 +11905,972 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>En retard Ponctuel  /VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.3522020997375328"/>
+                  <c:y val="0.28054279673374161"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$T$2:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>9.6590909090909088E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.40909090909090912</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-791E-48FC-8346-DC70F0F43B55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="935818848"/>
+        <c:axId val="935838816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="935818848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935838816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="935838816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935818848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Equilibré Instable / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$U$2:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F69-427A-8F9F-4F4A0D985B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1268997968"/>
+        <c:axId val="1269003376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1268997968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269003376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1269003376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1268997968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="fr-FR"/>
               <a:t>Minutieux</a:t>
             </a:r>
@@ -12338,7 +13346,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -12853,7 +13861,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -13318,7 +14326,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -13783,7 +14791,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -15039,9 +16047,6 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -15117,9 +16122,6 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>808.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -15537,12 +16539,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -15621,16 +16623,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>67</c:v>
@@ -15837,7 +16839,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent1">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -16063,12 +17068,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1244.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>808.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -16147,16 +17152,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>67</c:v>
@@ -16564,12 +17569,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1244.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>808.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -16582,16 +17587,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16932,84 +17937,84 @@
             <c:numRef>
               <c:f>BPS!$W$2:$W$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:pt idx="0">
+                  <c:v>0.19138101152556758</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.190758013619762</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>0.19138101152556758</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>0.20468925804491239</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>0.27350535299813195</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00">
+                <c:pt idx="5">
                   <c:v>0.16120051973703725</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>0.20957825775177399</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>0.16367528245775095</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>0.21888721500826658</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
+                <c:pt idx="9">
                   <c:v>0.21727317430719298</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>0.12324555806812812</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00">
+                <c:pt idx="11">
                   <c:v>0.32061713896859978</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.00">
+                <c:pt idx="12">
                   <c:v>0.1820505295355927</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="0.00">
+                <c:pt idx="13">
                   <c:v>0.3284283146246485</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0.00">
+                <c:pt idx="14">
                   <c:v>0.19490930490111669</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="0.00">
+                <c:pt idx="15">
                   <c:v>0.12621224612068394</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="0.00">
+                <c:pt idx="16">
                   <c:v>0.20154512681321413</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="0.00">
+                <c:pt idx="17">
                   <c:v>0.22856813817382998</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="0.00">
+                <c:pt idx="18">
                   <c:v>0.23816499013968034</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="0.00">
+                <c:pt idx="19">
                   <c:v>0.19790189859608504</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="0.00">
+                <c:pt idx="20">
                   <c:v>0.19022303663769691</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="0.00">
+                <c:pt idx="21">
                   <c:v>0.18744790301058986</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="0.00">
+                <c:pt idx="22">
                   <c:v>0.21375035241977705</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="0.00">
+                <c:pt idx="23">
                   <c:v>9.5966856645818693E-2</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="0.00">
+                <c:pt idx="24">
                   <c:v>0.18196207714477017</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="0.00">
+                <c:pt idx="25">
                   <c:v>0.1976714267340858</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="0.00">
+                <c:pt idx="26">
                   <c:v>0.20730231433161003</c:v>
                 </c:pt>
               </c:numCache>
@@ -17022,12 +18027,12 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
+                  <c:v>0.19488530843536417</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.10500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19488530843536417</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -18320,6 +19325,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -33008,6 +34093,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -36294,9 +38411,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -36401,16 +38518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>731308</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>26459</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>164042</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36473,16 +38590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>48683</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>42332</xdr:rowOff>
+      <xdr:rowOff>52916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:rowOff>21168</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36538,6 +38655,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>153460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D974F9-456E-4123-AAF8-B11953BA28F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>597959</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>131234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Graphique 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139A46EE-B8B2-4815-9A8D-041CBC72DC2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37350,7 +39539,7 @@
     <sortCondition ref="A1:A28"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F54F0C8C-2076-4A61-AE16-18A827F212DF}" name="Colonne1" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{F54F0C8C-2076-4A61-AE16-18A827F212DF}" name="Colonne1" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{BD667728-D6B6-42B4-8FEC-C363F347CABC}" name="Motrice"/>
     <tableColumn id="3" xr3:uid="{090B82D9-34A0-47DB-BBC2-EBFF78F2A348}" name="Cognitive"/>
     <tableColumn id="4" xr3:uid="{D45F49B8-FDB2-4871-B181-96D2B3D0AD51}" name="Non-Planning"/>
@@ -37359,24 +39548,24 @@
     <tableColumn id="7" xr3:uid="{3D2CADA8-7AAC-4CD0-BE82-D1827E3D9A4C}" name="TPVDN"/>
     <tableColumn id="8" xr3:uid="{241F374D-960A-4D63-87EA-CE91FBD1A785}" name="TPVUN"/>
     <tableColumn id="9" xr3:uid="{D9F4B8A7-315E-4C55-A449-22EECB963E45}" name="CV Vmax normal"/>
-    <tableColumn id="11" xr3:uid="{0DAD4827-9160-469F-BA45-55EA240B1EF2}" name="CV TPV normal" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{4101A321-03D5-4761-9609-5DFD1E5F8B6B}" name="Sujets" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{0DAD4827-9160-469F-BA45-55EA240B1EF2}" name="CV TPV normal" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{4101A321-03D5-4761-9609-5DFD1E5F8B6B}" name="Sujets" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:AA28" totalsRowShown="0">
-  <autoFilter ref="A1:AA28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA28">
-    <sortCondition ref="M1:M28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:AF28" totalsRowShown="0">
+  <autoFilter ref="A1:AF28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF28">
+    <sortCondition ref="J1:J28"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="4"/>
+  <tableColumns count="32">
+    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
     <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
-    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="8">
       <calculatedColumnFormula>ABS(C2-(6.1511*B2+348.6))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{E3E80936-5487-47DE-8A1C-072E65F3217E}" name="Motrice"/>
@@ -37393,54 +39582,59 @@
     <tableColumn id="15" xr3:uid="{872B0A33-1911-4A5E-9D72-09E45F1AD3B0}" name="Motrice2"/>
     <tableColumn id="16" xr3:uid="{F268696B-F4C6-49FF-B60B-2DA1B0A87612}" name="Cognitive3"/>
     <tableColumn id="17" xr3:uid="{4FFBAC32-D1F2-401F-AF42-144289E4376A}" name="Non-Planning4"/>
-    <tableColumn id="18" xr3:uid="{E381EAD1-EB43-414C-9655-53678A6427F5}" name="Total5"/>
+    <tableColumn id="18" xr3:uid="{E381EAD1-EB43-414C-9655-53678A6427F5}" name="Total2"/>
     <tableColumn id="19" xr3:uid="{EBB0B3D5-8D16-4EE8-9776-C72508A7456F}" name="VMN6"/>
     <tableColumn id="20" xr3:uid="{E9231253-9146-4983-BC41-C44C67987108}" name="TPVDN"/>
     <tableColumn id="21" xr3:uid="{18B6AF94-C549-49E9-BD57-E9BD98F8DA75}" name="TPVUN"/>
-    <tableColumn id="22" xr3:uid="{903089D6-8D2E-4057-800B-A5D8C740BAF4}" name="CV Vmax normal" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{15A9FF45-EF7F-4817-B991-D3346021A920}" name="CV TPV normal" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{244E1218-D64D-449E-9B5B-E757C48AC394}" name="Sujets" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{903089D6-8D2E-4057-800B-A5D8C740BAF4}" name="CV Vmax normal" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{15A9FF45-EF7F-4817-B991-D3346021A920}" name="CV TPV normal" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{244E1218-D64D-449E-9B5B-E757C48AC394}" name="Sujets" dataDxfId="5"/>
     <tableColumn id="26" xr3:uid="{69D7DBBC-EE2E-4C00-906A-E7409599239D}" name="Colonne12"/>
     <tableColumn id="27" xr3:uid="{FD017DFD-5C70-4F2B-A739-F52B68C2E40A}" name="Extraverti/Introverti"/>
+    <tableColumn id="28" xr3:uid="{40ABC1B3-23FB-4DBA-A764-B493E00A06AB}" name="Lent/Vif" dataDxfId="4"/>
+    <tableColumn id="29" xr3:uid="{8E4C373C-F684-4E7D-903A-B082DC8DF8B4}" name="Mesuré/Passionné" dataDxfId="3"/>
+    <tableColumn id="30" xr3:uid="{88ECDE0A-28D4-497E-919C-BA0F2D60EE3C}" name="réfléchit/ impulsif" dataDxfId="2"/>
+    <tableColumn id="31" xr3:uid="{53979D36-89D8-47C9-8FDA-9D2F85EE699C}" name="Concentré/Distrait" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{329739D4-0CFC-47B8-BAAF-A4E8AB2372DC}" name="Patient/Impatient" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AB27" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AB27" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A1:AB27" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB27">
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="31"/>
-    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="15"/>
-    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{28F7869E-4218-4A38-B4E7-6F7BC0E9C753}" name="Colonne12" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="36"/>
+    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="20"/>
+    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{28F7869E-4218-4A38-B4E7-6F7BC0E9C753}" name="Colonne12" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="10"/>
     <tableColumn id="25" xr3:uid="{D6260960-9238-4F09-91AD-EDE247C55825}" name="VMN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -37746,7 +39940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012EDC3-90BA-420E-8C93-D3C748D2357F}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -37793,7 +39987,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
@@ -38624,20 +40818,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.90625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -38678,7 +40873,7 @@
         <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
         <v>69</v>
@@ -38693,10 +40888,10 @@
         <v>77</v>
       </c>
       <c r="S1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" t="s">
         <v>78</v>
-      </c>
-      <c r="T1" t="s">
-        <v>79</v>
       </c>
       <c r="U1" t="s">
         <v>70</v>
@@ -38714,293 +40909,366 @@
         <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA1" t="s">
         <v>24</v>
       </c>
+      <c r="AB1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="40" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>727.68</v>
+      </c>
+      <c r="D2" s="8">
+        <f>ABS(C2-(6.1511*B2+348.6))</f>
+        <v>254.48329999999999</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <v>0.19</v>
+      </c>
+      <c r="J2">
+        <v>0.64</v>
+      </c>
+      <c r="K2">
+        <v>0.06</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.38</v>
+      </c>
+      <c r="P2">
+        <v>17</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>56</v>
+      </c>
+      <c r="T2">
+        <v>727.68</v>
+      </c>
+      <c r="U2">
+        <v>0.48697176452987984</v>
+      </c>
+      <c r="V2">
+        <v>0.43788391930139975</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.19138101152556758</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.19488530843536417</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2">
+        <v>0.5</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AC2" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AE2" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="AF2" s="38">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
         <v>107</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1244.5</v>
       </c>
-      <c r="D2">
-        <f>ABS(C2-(6.1511*B2+348.6))</f>
+      <c r="D3">
+        <f>ABS(C3-(6.1511*B3+348.6))</f>
         <v>237.73230000000001</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>27</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>23</v>
       </c>
-      <c r="H2">
-        <f>SUM(E2:G2)</f>
+      <c r="H3">
+        <f>SUM(E3:G3)</f>
         <v>77</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>0.19</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>0.66</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0.18</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M3" s="11">
         <v>0.36</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="P2">
+      <c r="N3" s="11"/>
+      <c r="P3">
         <f>2+3+3+2+2+2+3+1+4+3+2</f>
         <v>27</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <f>2+3+2+2+4+2+3+2+2+3+2</f>
         <v>27</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <f>3+2+1+4+3+1+1+1+1+1+2+3</f>
         <v>23</v>
       </c>
-      <c r="S2">
-        <f>SUM(P2:R2)</f>
+      <c r="S3">
+        <f>SUM(P3:R3)</f>
         <v>77</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>1244.5</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>0.53721600055204066</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>0.51825781535814563</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W3" s="2">
         <v>0.190758013619762</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X3" s="2">
         <v>0.10500000000000001</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z3" t="s">
         <v>28</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>9.4318181818181829E-2</v>
       </c>
+      <c r="AB3" s="37">
+        <f>3.7/88</f>
+        <v>4.2045454545454546E-2</v>
+      </c>
+      <c r="AC3" s="32">
+        <v>3.2954545454545452E-2</v>
+      </c>
+      <c r="AD3" s="37">
+        <f>1.6/88</f>
+        <v>1.8181818181818184E-2</v>
+      </c>
+      <c r="AE3" s="37">
+        <f>7.6/88</f>
+        <v>8.6363636363636365E-2</v>
+      </c>
+      <c r="AF3" s="39">
+        <f>0.2/88</f>
+        <v>2.2727272727272731E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="8">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8">
-        <v>53</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="8"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="8">
-        <v>103</v>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
+        <v>121</v>
       </c>
       <c r="C4">
-        <v>727.68</v>
-      </c>
-      <c r="D4" s="8">
+        <v>808.85</v>
+      </c>
+      <c r="D4">
         <f>ABS(C4-(6.1511*B4+348.6))</f>
-        <v>254.48329999999999</v>
+        <v>284.03309999999999</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>22</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <f>SUM(E4:G4)</f>
+        <v>59</v>
       </c>
       <c r="I4">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
-        <v>0.64</v>
+        <v>0.81</v>
       </c>
       <c r="K4">
-        <v>0.06</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0.38</v>
+      <c r="M4" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="O4">
+        <v>0.1</v>
       </c>
       <c r="P4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>17</v>
-      </c>
-      <c r="R4">
-        <v>22</v>
-      </c>
-      <c r="S4">
-        <v>56</v>
-      </c>
-      <c r="T4">
-        <v>727.68</v>
-      </c>
-      <c r="U4">
-        <v>0.48697176452987984</v>
-      </c>
-      <c r="V4">
-        <v>0.43788391930139975</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0.19138101152556758</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0.19488530843536417</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
-        <v>121</v>
-      </c>
-      <c r="C5">
-        <v>808.85</v>
-      </c>
-      <c r="D5">
-        <f>ABS(C5-(6.1511*B5+348.6))</f>
-        <v>284.03309999999999</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <f>SUM(E5:G5)</f>
-        <v>59</v>
-      </c>
-      <c r="I5">
-        <v>0.2</v>
-      </c>
-      <c r="J5">
-        <v>0.81</v>
-      </c>
-      <c r="K5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="O5">
-        <v>0.1</v>
-      </c>
-      <c r="P5">
-        <v>15</v>
-      </c>
-      <c r="Q5">
         <f>3+4+4+4+0+1+1+0+1+4+0</f>
         <v>22</v>
       </c>
-      <c r="R5">
+      <c r="R4">
         <f>3+0+3+1+3+4+0+1+3+0+3+1</f>
         <v>22</v>
       </c>
-      <c r="S5">
-        <f>SUM(P5:R5)</f>
+      <c r="S4">
+        <f>SUM(P4:R4)</f>
         <v>59</v>
       </c>
-      <c r="T5">
+      <c r="T4">
         <v>808.85</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W4" s="2">
         <v>0.20468925804491239</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X4" s="2">
         <v>0.13</v>
       </c>
-      <c r="Y5" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z4" t="s">
         <v>3</v>
       </c>
-      <c r="AA5">
+      <c r="AA4">
         <v>0.30681818181818182</v>
       </c>
+      <c r="AB4" s="37">
+        <f>43/88</f>
+        <v>0.48863636363636365</v>
+      </c>
+      <c r="AC4" s="32">
+        <v>0.89772727272727271</v>
+      </c>
+      <c r="AD4" s="37">
+        <f>39/88</f>
+        <v>0.44318181818181818</v>
+      </c>
+      <c r="AE4" s="37">
+        <f>75/88</f>
+        <v>0.85227272727272729</v>
+      </c>
+      <c r="AF4" s="39">
+        <f>38/88</f>
+        <v>0.43181818181818182</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="8">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8">
+        <v>53</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="8"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>48</v>
       </c>
@@ -39065,8 +41333,23 @@
       <c r="AA6">
         <v>0.5</v>
       </c>
+      <c r="AB6" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AC6" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -39125,8 +41408,23 @@
       <c r="AA7">
         <v>0.2</v>
       </c>
+      <c r="AB7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AC7" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -39185,8 +41483,23 @@
       <c r="AA8">
         <v>0.8</v>
       </c>
+      <c r="AB8" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AC8" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
@@ -39245,8 +41558,23 @@
       <c r="AA9">
         <v>0.6</v>
       </c>
+      <c r="AB9" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AC9" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -39305,8 +41633,23 @@
       <c r="AA10">
         <v>0.1</v>
       </c>
+      <c r="AB10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AC10" s="33">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -39365,8 +41708,23 @@
       <c r="AA11">
         <v>0.9</v>
       </c>
+      <c r="AB11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AC11" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>49</v>
       </c>
@@ -39425,8 +41783,23 @@
       <c r="AA12">
         <v>0.8</v>
       </c>
+      <c r="AB12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC12" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>46</v>
       </c>
@@ -39485,8 +41858,23 @@
       <c r="AA13">
         <v>0.4</v>
       </c>
+      <c r="AB13" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AC13" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -39545,8 +41933,23 @@
       <c r="AA14">
         <v>0.5</v>
       </c>
+      <c r="AB14" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AC14" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
@@ -39605,8 +42008,23 @@
       <c r="AA15">
         <v>0.4</v>
       </c>
+      <c r="AB15" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AC15" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -39665,8 +42083,23 @@
       <c r="AA16">
         <v>0.2</v>
       </c>
+      <c r="AB16" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AC16" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -39725,8 +42158,23 @@
       <c r="AA17">
         <v>0.6</v>
       </c>
+      <c r="AB17" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AC17" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>57</v>
       </c>
@@ -39785,8 +42233,23 @@
       <c r="AA18">
         <v>0.1</v>
       </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>43</v>
       </c>
@@ -39845,8 +42308,23 @@
       <c r="AA19">
         <v>0.7</v>
       </c>
+      <c r="AB19" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AC19" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -39905,8 +42383,23 @@
       <c r="AA20">
         <v>0.2</v>
       </c>
+      <c r="AB20" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AC20" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -39965,8 +42458,23 @@
       <c r="AA21">
         <v>0.5</v>
       </c>
+      <c r="AB21" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AC21" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
@@ -40025,8 +42533,23 @@
       <c r="AA22">
         <v>0.5</v>
       </c>
+      <c r="AB22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AC22" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -40085,8 +42608,23 @@
       <c r="AA23">
         <v>0.5</v>
       </c>
+      <c r="AB23" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AC23" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -40145,8 +42683,23 @@
       <c r="AA24">
         <v>0.1</v>
       </c>
+      <c r="AB24" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AC24" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -40205,8 +42758,23 @@
       <c r="AA25">
         <v>0.5</v>
       </c>
+      <c r="AB25" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AC25" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -40265,8 +42833,23 @@
       <c r="AA26">
         <v>0.8</v>
       </c>
+      <c r="AB26" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AC26" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -40325,8 +42908,23 @@
       <c r="AA27">
         <v>0.5</v>
       </c>
+      <c r="AB27" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AC27" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>40</v>
       </c>
@@ -40385,6 +42983,25 @@
       <c r="AA28">
         <v>0.2</v>
       </c>
+      <c r="AB28" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AC28" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AF28" s="41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -40400,8 +43017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X27"/>
+    <sheetView topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40499,7 +43116,7 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>24</v>

--- a/scales (1).xlsx
+++ b/scales (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{5E0B1562-735E-47B3-8F5F-0B71DA3DA18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64069E34-740D-48B2-A84F-E71CCBBE9151}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C124AC1-4E03-4877-A1C2-0F61F0AC5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -507,149 +506,13 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1050,6 +913,143 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1169,7 +1169,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1277,7 +1277,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1515,7 +1515,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="862478848"/>
@@ -1563,7 +1563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="922025712"/>
@@ -1611,7 +1611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1687,7 +1687,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1781,7 +1781,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1796,13 +1796,13 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,13 +1817,13 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,7 +1888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050636816"/>
@@ -1937,7 +1937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050630992"/>
@@ -1985,7 +1985,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2061,7 +2061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2155,7 +2155,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2170,13 +2170,13 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,11 +2190,11 @@
                 <c:pt idx="0">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,7 +2259,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1451607472"/>
@@ -2308,7 +2308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1451621616"/>
@@ -2356,7 +2356,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2432,7 +2432,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2540,7 +2540,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2554,11 +2554,11 @@
                 <c:pt idx="0">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,13 +2573,13 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2644,7 +2644,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1559951616"/>
@@ -2693,7 +2693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1559954944"/>
@@ -2741,7 +2741,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2817,7 +2817,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2911,7 +2911,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2925,11 +2925,11 @@
                 <c:pt idx="0">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1244.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>555.07000000000005</c:v>
@@ -3012,11 +3012,11 @@
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4318181818181829E-2</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.30681818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4318181818181829E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -3149,7 +3149,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="630673951"/>
@@ -3197,7 +3197,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="630675615"/>
@@ -3245,7 +3245,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3321,7 +3321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3415,7 +3415,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3448,7 +3448,7 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.28999999999999998</c:v>
@@ -3515,7 +3515,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="874109743"/>
@@ -3563,7 +3563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="874106415"/>
@@ -3611,7 +3611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3623,6 +3623,516 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11008158355205599"/>
+                  <c:y val="-0.42619714202391368"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BPS!$B$2:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BPS!$X$2:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.19488530843536417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2987388657769145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2635723605504261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3769617948418891E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16840344988893338</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27130752388374324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1475549402808192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22618618391532119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12574829784647523</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10840508583399006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8563-422A-83EE-E08D868930E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="585632584"/>
+        <c:axId val="585633240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="585632584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585633240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="585633240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585632584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3687,7 +4197,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3792,7 +4302,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4030,7 +4540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005130992"/>
@@ -4078,7 +4588,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005131408"/>
@@ -4126,7 +4636,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4137,7 +4647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4202,7 +4712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4307,7 +4817,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4545,7 +5055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1037082720"/>
@@ -4593,7 +5103,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870201088"/>
@@ -4641,7 +5151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4652,7 +5162,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4717,7 +5227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4822,7 +5332,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5060,7 +5570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064219632"/>
@@ -5108,7 +5618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064209232"/>
@@ -5156,7 +5666,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5167,7 +5677,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5232,7 +5742,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5337,7 +5847,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5575,7 +6085,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928867152"/>
@@ -5623,7 +6133,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="928866320"/>
@@ -5671,472 +6181,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Concentré Distrait / VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$G$2:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.6363636363636365E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.85227272727272729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AB$2:$AB$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DAF9-4D5C-BC28-2764C7EFA11C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1062230016"/>
-        <c:axId val="1062225856"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1062230016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1062225856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1062225856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1062230016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6212,7 +6257,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6320,7 +6365,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6558,7 +6603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868185120"/>
@@ -6606,7 +6651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="868184288"/>
@@ -6654,7 +6699,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6666,6 +6711,471 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Concentré Distrait / VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>8.6363636363636365E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.85227272727272729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAF9-4D5C-BC28-2764C7EFA11C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1062230016"/>
+        <c:axId val="1062225856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1062230016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062225856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1062225856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062230016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6730,7 +7240,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6835,7 +7345,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7037,7 +7547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026527008"/>
@@ -7085,7 +7595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026522016"/>
@@ -7133,7 +7643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7144,7 +7654,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7209,7 +7719,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7502,7 +8012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004969120"/>
@@ -7550,7 +8060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1004968704"/>
@@ -7598,7 +8108,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7609,7 +8119,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7674,7 +8184,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7967,7 +8477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073921712"/>
@@ -8015,7 +8525,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1073925040"/>
@@ -8063,7 +8573,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8074,7 +8584,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8139,7 +8649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8432,7 +8942,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064199248"/>
@@ -8480,7 +8990,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064195920"/>
@@ -8528,7 +9038,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8539,7 +9049,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8604,7 +9114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8897,7 +9407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141333232"/>
@@ -8945,7 +9455,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141327408"/>
@@ -8993,7 +9503,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9004,7 +9514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9069,7 +9579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9362,7 +9872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064215056"/>
@@ -9410,7 +9920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064202160"/>
@@ -9458,7 +9968,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9469,7 +9979,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -9534,7 +10044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9625,7 +10135,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9863,7 +10373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177714016"/>
@@ -9911,7 +10421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177713600"/>
@@ -9959,7 +10469,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9970,7 +10480,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10043,7 +10553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10322,7 +10832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224624"/>
@@ -10370,7 +10880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064224208"/>
@@ -10418,7 +10928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10429,7 +10939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -10494,7 +11004,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10787,7 +11297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005201104"/>
@@ -10835,7 +11345,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1005200688"/>
@@ -10883,480 +11393,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Soigné</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> Négligé / </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>VMN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Perso!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VMN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Perso!$S$2:$S$27</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>3.4090909090909088E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.20454545454545456</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Perso!$AB$2:$AB$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>727.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>555.07000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1244.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>952.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1264.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>808.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1627.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1411.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1183.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>641.14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1127.92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>803.62</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>939.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>771.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1266.79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>828.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>757.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1394.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1333.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1200.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1276.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8265-441F-916D-0A74E8C53EFD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1172490096"/>
-        <c:axId val="1172488432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1172490096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1172488432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1172488432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1172490096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11432,7 +11469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11526,7 +11563,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11764,7 +11801,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528694832"/>
@@ -11812,7 +11849,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528696496"/>
@@ -11860,7 +11897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11872,6 +11909,479 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Soigné</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Négligé / </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>VMN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perso!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Perso!$S$2:$S$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>3.4090909090909088E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.20454545454545456</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Perso!$AB$2:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>727.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8265-441F-916D-0A74E8C53EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1172490096"/>
+        <c:axId val="1172488432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1172490096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172488432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1172488432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172490096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -11936,7 +12446,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12027,7 +12537,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12265,7 +12775,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935838816"/>
@@ -12313,7 +12823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935818848"/>
@@ -12361,7 +12871,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12372,7 +12882,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -12437,7 +12947,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12730,7 +13240,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269003376"/>
@@ -12778,7 +13288,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268997968"/>
@@ -12826,7 +13336,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12837,7 +13347,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -12910,7 +13420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13001,7 +13511,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13239,7 +13749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177709440"/>
@@ -13287,7 +13797,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177690720"/>
@@ -13335,7 +13845,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13346,7 +13856,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -13411,7 +13921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13516,7 +14026,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13754,7 +14264,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076065200"/>
@@ -13802,7 +14312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1076060624"/>
@@ -13850,7 +14360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13861,7 +14371,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -13926,7 +14436,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14219,7 +14729,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107543424"/>
@@ -14267,7 +14777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1107533440"/>
@@ -14315,7 +14825,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14326,7 +14836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -14391,7 +14901,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14684,7 +15194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935840064"/>
@@ -14732,7 +15242,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935837152"/>
@@ -14780,7 +15290,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14791,7 +15301,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -14864,7 +15374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14955,7 +15465,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -15193,7 +15703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172069744"/>
@@ -15241,7 +15751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1172048944"/>
@@ -15289,7 +15799,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15365,7 +15875,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15459,7 +15969,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -15697,7 +16207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873249360"/>
@@ -15745,7 +16255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873251440"/>
@@ -15793,7 +16303,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15869,7 +16379,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16035,7 +16545,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -16049,6 +16559,9 @@
                 <c:pt idx="0">
                   <c:v>121</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>104</c:v>
                 </c:pt>
@@ -16123,6 +16636,9 @@
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1244.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>555.07000000000005</c:v>
@@ -16250,7 +16766,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026464208"/>
@@ -16298,7 +16814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1026466704"/>
@@ -16346,7 +16862,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16422,7 +16938,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16527,7 +17043,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -16547,6 +17063,9 @@
                 <c:pt idx="2">
                   <c:v>121</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>104</c:v>
                 </c:pt>
@@ -16626,13 +17145,13 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>67</c:v>
@@ -16763,7 +17282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760381464"/>
@@ -16811,7 +17330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760378184"/>
@@ -16862,7 +17381,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16938,7 +17457,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17056,7 +17575,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -17070,11 +17589,11 @@
                 <c:pt idx="0">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1244.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>555.07000000000005</c:v>
@@ -17155,13 +17674,13 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>67</c:v>
@@ -17291,7 +17810,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="709100703"/>
@@ -17339,7 +17858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="709099871"/>
@@ -17387,7 +17906,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17463,7 +17982,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17557,7 +18076,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -17571,11 +18090,11 @@
                 <c:pt idx="0">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1244.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1244.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17590,13 +18109,13 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17661,7 +18180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1948973664"/>
@@ -17710,7 +18229,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1948969920"/>
@@ -17758,7 +18277,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17834,7 +18353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17928,7 +18447,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -17937,84 +18456,84 @@
             <c:numRef>
               <c:f>BPS!$W$2:$W$28</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0.19138101152556758</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.20468925804491239</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>0.190758013619762</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20468925804491239</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>0.27350535299813195</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>0.16120051973703725</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>0.20957825775177399</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>0.16367528245775095</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>0.21888721500826658</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>0.21727317430719298</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>0.12324555806812812</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>0.32061713896859978</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>0.1820505295355927</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>0.3284283146246485</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>0.19490930490111669</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>0.12621224612068394</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>0.20154512681321413</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>0.22856813817382998</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>0.23816499013968034</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>0.19790189859608504</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>0.19022303663769691</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>0.18744790301058986</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>0.21375035241977705</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>9.5966856645818693E-2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>0.18196207714477017</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>0.1976714267340858</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>0.20730231433161003</c:v>
                 </c:pt>
               </c:numCache>
@@ -18029,11 +18548,11 @@
                 <c:pt idx="0">
                   <c:v>0.19488530843536417</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10500000000000001</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2987388657769145</c:v>
@@ -18166,7 +18685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="158433520"/>
@@ -18214,7 +18733,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="158434768"/>
@@ -18262,7 +18781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19405,6 +19924,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -34610,6 +35169,522 @@
 </file>
 
 <file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -38727,6 +39802,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>693209</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>693209</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41F795F-BFEE-4BE5-9A44-14F98A12CFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39559,13 +40670,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}" name="Tableau1" displayName="Tableau1" ref="A1:AF28" totalsRowShown="0">
   <autoFilter ref="A1:AF28" xr:uid="{B661E332-EF35-486A-B43B-60BA9CFEE286}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF28">
-    <sortCondition ref="J1:J28"/>
+    <sortCondition ref="N1:N28"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3712F773-EED8-4280-B4EB-2BBA2A6CE742}" name="Colonne1" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{6453D9EA-F9CB-471D-8404-471B3F332756}" name="score"/>
     <tableColumn id="3" xr3:uid="{AA2EF9DD-2192-48E0-8BEC-D975F28D10E6}" name="VMN"/>
-    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{2273CC0C-E55D-435D-BB74-9D33B5F516F3}" name="dist(pred-reel)" dataDxfId="36">
       <calculatedColumnFormula>ABS(C2-(6.1511*B2+348.6))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{E3E80936-5487-47DE-8A1C-072E65F3217E}" name="Motrice"/>
@@ -39586,55 +40697,55 @@
     <tableColumn id="19" xr3:uid="{EBB0B3D5-8D16-4EE8-9776-C72508A7456F}" name="VMN6"/>
     <tableColumn id="20" xr3:uid="{E9231253-9146-4983-BC41-C44C67987108}" name="TPVDN"/>
     <tableColumn id="21" xr3:uid="{18B6AF94-C549-49E9-BD57-E9BD98F8DA75}" name="TPVUN"/>
-    <tableColumn id="22" xr3:uid="{903089D6-8D2E-4057-800B-A5D8C740BAF4}" name="CV Vmax normal" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{15A9FF45-EF7F-4817-B991-D3346021A920}" name="CV TPV normal" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{244E1218-D64D-449E-9B5B-E757C48AC394}" name="Sujets" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{903089D6-8D2E-4057-800B-A5D8C740BAF4}" name="CV Vmax normal" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{15A9FF45-EF7F-4817-B991-D3346021A920}" name="CV TPV normal" dataDxfId="34"/>
+    <tableColumn id="24" xr3:uid="{244E1218-D64D-449E-9B5B-E757C48AC394}" name="Sujets" dataDxfId="33"/>
     <tableColumn id="26" xr3:uid="{69D7DBBC-EE2E-4C00-906A-E7409599239D}" name="Colonne12"/>
     <tableColumn id="27" xr3:uid="{FD017DFD-5C70-4F2B-A739-F52B68C2E40A}" name="Extraverti/Introverti"/>
-    <tableColumn id="28" xr3:uid="{40ABC1B3-23FB-4DBA-A764-B493E00A06AB}" name="Lent/Vif" dataDxfId="4"/>
-    <tableColumn id="29" xr3:uid="{8E4C373C-F684-4E7D-903A-B082DC8DF8B4}" name="Mesuré/Passionné" dataDxfId="3"/>
-    <tableColumn id="30" xr3:uid="{88ECDE0A-28D4-497E-919C-BA0F2D60EE3C}" name="réfléchit/ impulsif" dataDxfId="2"/>
-    <tableColumn id="31" xr3:uid="{53979D36-89D8-47C9-8FDA-9D2F85EE699C}" name="Concentré/Distrait" dataDxfId="1"/>
-    <tableColumn id="32" xr3:uid="{329739D4-0CFC-47B8-BAAF-A4E8AB2372DC}" name="Patient/Impatient" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{40ABC1B3-23FB-4DBA-A764-B493E00A06AB}" name="Lent/Vif" dataDxfId="32"/>
+    <tableColumn id="29" xr3:uid="{8E4C373C-F684-4E7D-903A-B082DC8DF8B4}" name="Mesuré/Passionné" dataDxfId="31"/>
+    <tableColumn id="30" xr3:uid="{88ECDE0A-28D4-497E-919C-BA0F2D60EE3C}" name="réfléchit/ impulsif" dataDxfId="30"/>
+    <tableColumn id="31" xr3:uid="{53979D36-89D8-47C9-8FDA-9D2F85EE699C}" name="Concentré/Distrait" dataDxfId="29"/>
+    <tableColumn id="32" xr3:uid="{329739D4-0CFC-47B8-BAAF-A4E8AB2372DC}" name="Patient/Impatient" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AB27" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}" name="Tableau2" displayName="Tableau2" ref="A1:AB27" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:AB27" xr:uid="{C81F56A9-6CA7-46DA-AC43-658C5ED33BBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB27">
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="36"/>
-    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="20"/>
-    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="15"/>
-    <tableColumn id="28" xr3:uid="{28F7869E-4218-4A38-B4E7-6F7BC0E9C753}" name="Colonne12" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{4C3D2B99-81E1-449E-B54F-A4CD2E246143}" name="Colonne1" dataDxfId="26"/>
+    <tableColumn id="27" xr3:uid="{56536318-B2AD-4CB4-83FA-815D21AA5C91}" name="TPVN" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{1E1E98DC-8D0C-484A-83C7-F945C2A1BAC0}" name="Réfléchi/Impulsif" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{34EE6424-1D37-4084-9BC6-B069F326C7D8}" name="Patient/Impatient" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{52CDA8A8-66AA-4597-8233-835AC7B49D11}" name="Mesuré/Passionné" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{9AD51FB7-98CE-4D91-99EA-D68287E61C0E}" name="Survolté/Calme" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{25E15615-E3BB-4470-B380-CB539C3B11BE}" name="Concentré/Distrait" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{2A7B67DB-915B-4DD2-9D2E-FD949E338A0B}" name="Anxieux/Détendu" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{1AB4EB6D-ADE5-4443-BFA2-BF2995D9DE26}" name="Intuitif/Logique" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{1A51C355-86D9-419E-9EE0-C79428E1E0EF}" name="Méthodique/Désordonné" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{29082C13-A5E2-4BB0-B3F0-BCA76EDCE87E}" name="Rêveur/Pragmatique" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{ADD94587-57F2-498A-8218-F634373E78A3}" name="Souple/Intransigeant" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{FD34DC9E-B32E-46C1-AF8F-D6597BC31C97}" name="Dynamique/Lymphatique" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{30A4D4E6-1B15-4C7E-96C1-782B0145BC06}" name="Organisé/Brouillon" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{09C2BD8A-C131-48F5-BC3B-4860DA9424DB}" name="Habile/Maladroit" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{3E92E182-7141-4C42-A1AB-8F3124AE2608}" name="Prudent/Fonceur" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{5888F45E-D1E4-40A2-84ED-17437F5F8150}" name="Lent/Vif" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{102745E7-B6A0-4F4F-B799-6BE480033F86}" name="Colonne2" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{6B6AFFC2-23CA-454B-98C2-48CB237DE9C5}" name="Soigné/Négligé" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{C445B74F-DCA0-484A-BA7C-8FF7AA4A26B0}" name="En retard/Ponctuel" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{20F4EFC3-B584-4D0F-9C1F-9C44A4988A31}" name="Equilibré/Instable" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{62C72FD4-0280-4140-821C-A3B818ED47C5}" name="Minutieux/Grossier" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{28F7869E-4218-4A38-B4E7-6F7BC0E9C753}" name="Colonne12" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{BBCB229D-51FF-4CC9-B4AF-3B170A0B6C14}" name="Extraverti/Introverti" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{7C10C16B-5C27-4125-BAFA-CDB6320A8719}" name="Agréable/Peu agréable" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{4AEF5EDB-0474-4DE2-AAAD-4EB21BA44D9D}" name="Stable émotionnellement/Instable émotionnellement" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{EADCC227-EA68-4A99-A0F1-7E29B33F8756}" name="Ouverture à l'expérience/Fermeture à l'expérience" dataDxfId="0"/>
     <tableColumn id="25" xr3:uid="{D6260960-9238-4F09-91AD-EDE247C55825}" name="VMN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -40820,16 +41931,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.90625" style="29"/>
+    <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.90625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
@@ -40914,19 +42026,19 @@
       <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="29" t="s">
         <v>7</v>
       </c>
       <c r="AD1" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AF1" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -40971,6 +42083,12 @@
       <c r="M2">
         <v>0.38</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.23</v>
+      </c>
       <c r="P2">
         <v>17</v>
       </c>
@@ -41010,118 +42128,65 @@
       <c r="AB2" s="8">
         <v>0.7</v>
       </c>
-      <c r="AC2" s="36">
+      <c r="AC2" s="35">
         <v>0.7</v>
       </c>
       <c r="AD2" s="8">
         <v>0.3</v>
       </c>
-      <c r="AE2" s="42">
+      <c r="AE2" s="41">
         <v>0.3</v>
       </c>
-      <c r="AF2" s="38">
+      <c r="AF2" s="37">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
+      <c r="A3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="8">
+        <f>3+5+2+5+5+5+5+3+5+5+5+2+3+2+2+2+4+2+5+5+5+2+4+6+5+6+2+2</f>
         <v>107</v>
       </c>
-      <c r="C3">
-        <v>1244.5</v>
-      </c>
-      <c r="D3">
-        <f>ABS(C3-(6.1511*B3+348.6))</f>
-        <v>237.73230000000001</v>
-      </c>
-      <c r="E3">
-        <v>27</v>
-      </c>
-      <c r="F3">
-        <v>27</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <f>SUM(E3:G3)</f>
-        <v>77</v>
-      </c>
-      <c r="I3">
-        <v>0.19</v>
-      </c>
-      <c r="J3">
-        <v>0.66</v>
-      </c>
-      <c r="K3">
-        <v>0.18</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0.36</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="P3">
-        <f>2+3+3+2+2+2+3+1+4+3+2</f>
-        <v>27</v>
-      </c>
-      <c r="Q3">
-        <f>2+3+2+2+4+2+3+2+2+3+2</f>
-        <v>27</v>
-      </c>
-      <c r="R3">
-        <f>3+2+1+4+3+1+1+1+1+1+2+3</f>
-        <v>23</v>
-      </c>
-      <c r="S3">
-        <f>SUM(P3:R3)</f>
-        <v>77</v>
-      </c>
-      <c r="T3">
-        <v>1244.5</v>
-      </c>
-      <c r="U3">
-        <v>0.53721600055204066</v>
-      </c>
-      <c r="V3">
-        <v>0.51825781535814563</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0.190758013619762</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.10500000000000001</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3">
-        <v>9.4318181818181829E-2</v>
-      </c>
-      <c r="AB3" s="37">
-        <f>3.7/88</f>
-        <v>4.2045454545454546E-2</v>
-      </c>
-      <c r="AC3" s="32">
-        <v>3.2954545454545452E-2</v>
-      </c>
-      <c r="AD3" s="37">
-        <f>1.6/88</f>
-        <v>1.8181818181818184E-2</v>
-      </c>
-      <c r="AE3" s="37">
-        <f>7.6/88</f>
-        <v>8.6363636363636365E-2</v>
-      </c>
-      <c r="AF3" s="39">
-        <f>0.2/88</f>
-        <v>2.2727272727272731E-3</v>
+      <c r="C3" s="8"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="8">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>53</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="42">
+        <f>0.32/0.88</f>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -41206,70 +42271,129 @@
       <c r="AA4">
         <v>0.30681818181818182</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="36">
         <f>43/88</f>
         <v>0.48863636363636365</v>
       </c>
-      <c r="AC4" s="32">
+      <c r="AC4" s="31">
         <v>0.89772727272727271</v>
       </c>
-      <c r="AD4" s="37">
+      <c r="AD4" s="36">
         <f>39/88</f>
         <v>0.44318181818181818</v>
       </c>
-      <c r="AE4" s="37">
+      <c r="AE4" s="36">
         <f>75/88</f>
         <v>0.85227272727272729</v>
       </c>
-      <c r="AF4" s="39">
+      <c r="AF4" s="38">
         <f>38/88</f>
         <v>0.43181818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="8">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8">
-        <v>17</v>
-      </c>
-      <c r="H5" s="8">
-        <v>53</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="8"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
+      <c r="A5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <f>3+6+2+2+4+2+6+4+5+4+3+3+5+3+7+2+4+5+2+6+5+2+4+4+2+5+6+1</f>
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>1244.5</v>
+      </c>
+      <c r="D5">
+        <f>ABS(C5-(6.1511*B5+348.6))</f>
+        <v>237.73230000000001</v>
+      </c>
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <f>SUM(E5:G5)</f>
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>0.19</v>
+      </c>
+      <c r="J5">
+        <v>0.66</v>
+      </c>
+      <c r="K5">
+        <v>0.18</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="P5">
+        <f>2+3+3+2+2+2+3+1+4+3+2</f>
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <f>2+3+2+2+4+2+3+2+2+3+2</f>
+        <v>27</v>
+      </c>
+      <c r="R5">
+        <f>3+2+1+4+3+1+1+1+1+1+2+3</f>
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <f>SUM(P5:R5)</f>
+        <v>77</v>
+      </c>
+      <c r="T5">
+        <v>1244.5</v>
+      </c>
+      <c r="U5">
+        <v>0.53721600055204066</v>
+      </c>
+      <c r="V5">
+        <v>0.51825781535814563</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.190758013619762</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5">
+        <v>9.4318181818181829E-2</v>
+      </c>
+      <c r="AB5" s="21">
+        <f>3.7/88</f>
+        <v>4.2045454545454546E-2</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>3.2954545454545452E-2</v>
+      </c>
+      <c r="AD5" s="21">
+        <f>1.6/88</f>
+        <v>1.8181818181818184E-2</v>
+      </c>
+      <c r="AE5" s="21">
+        <f>7.6/88</f>
+        <v>8.6363636363636365E-2</v>
+      </c>
+      <c r="AF5" s="38">
+        <f>0.2/88</f>
+        <v>2.2727272727272731E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="12">
@@ -41336,7 +42460,7 @@
       <c r="AB6" s="6">
         <v>0.7</v>
       </c>
-      <c r="AC6" s="33">
+      <c r="AC6" s="32">
         <v>0.8</v>
       </c>
       <c r="AD6" s="6">
@@ -41411,7 +42535,7 @@
       <c r="AB7" s="5">
         <v>0.8</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AC7" s="32">
         <v>0.8</v>
       </c>
       <c r="AD7" s="5">
@@ -41486,7 +42610,7 @@
       <c r="AB8" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AC8" s="32">
         <v>0.9</v>
       </c>
       <c r="AD8" s="6">
@@ -41561,7 +42685,7 @@
       <c r="AB9" s="5">
         <v>0.9</v>
       </c>
-      <c r="AC9" s="33">
+      <c r="AC9" s="32">
         <v>0.4</v>
       </c>
       <c r="AD9" s="5">
@@ -41636,7 +42760,7 @@
       <c r="AB10" s="5">
         <v>0.7</v>
       </c>
-      <c r="AC10" s="33">
+      <c r="AC10" s="32">
         <v>1</v>
       </c>
       <c r="AD10" s="5">
@@ -41711,7 +42835,7 @@
       <c r="AB11" s="6">
         <v>0.9</v>
       </c>
-      <c r="AC11" s="33">
+      <c r="AC11" s="32">
         <v>0.6</v>
       </c>
       <c r="AD11" s="6">
@@ -41786,7 +42910,7 @@
       <c r="AB12" s="5">
         <v>0.5</v>
       </c>
-      <c r="AC12" s="33">
+      <c r="AC12" s="32">
         <v>0.2</v>
       </c>
       <c r="AD12" s="5">
@@ -41861,7 +42985,7 @@
       <c r="AB13" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC13" s="33">
+      <c r="AC13" s="32">
         <v>0.5</v>
       </c>
       <c r="AD13" s="6">
@@ -41936,7 +43060,7 @@
       <c r="AB14" s="5">
         <v>0.9</v>
       </c>
-      <c r="AC14" s="33">
+      <c r="AC14" s="32">
         <v>0.8</v>
       </c>
       <c r="AD14" s="5">
@@ -42011,7 +43135,7 @@
       <c r="AB15" s="5">
         <v>0.9</v>
       </c>
-      <c r="AC15" s="33">
+      <c r="AC15" s="32">
         <v>0.8</v>
       </c>
       <c r="AD15" s="5">
@@ -42086,7 +43210,7 @@
       <c r="AB16" s="5">
         <v>0.8</v>
       </c>
-      <c r="AC16" s="33">
+      <c r="AC16" s="32">
         <v>0.9</v>
       </c>
       <c r="AD16" s="5">
@@ -42161,7 +43285,7 @@
       <c r="AB17" s="5">
         <v>0.7</v>
       </c>
-      <c r="AC17" s="33">
+      <c r="AC17" s="32">
         <v>0.4</v>
       </c>
       <c r="AD17" s="5">
@@ -42236,7 +43360,7 @@
       <c r="AB18" s="3">
         <v>1</v>
       </c>
-      <c r="AC18" s="33">
+      <c r="AC18" s="32">
         <v>0.9</v>
       </c>
       <c r="AD18" s="3">
@@ -42311,7 +43435,7 @@
       <c r="AB19" s="5">
         <v>0.6</v>
       </c>
-      <c r="AC19" s="33">
+      <c r="AC19" s="32">
         <v>0.6</v>
       </c>
       <c r="AD19" s="5">
@@ -42386,7 +43510,7 @@
       <c r="AB20" s="6">
         <v>0.6</v>
       </c>
-      <c r="AC20" s="33">
+      <c r="AC20" s="32">
         <v>0.8</v>
       </c>
       <c r="AD20" s="6">
@@ -42461,7 +43585,7 @@
       <c r="AB21" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC21" s="33">
+      <c r="AC21" s="32">
         <v>0.9</v>
       </c>
       <c r="AD21" s="6">
@@ -42536,7 +43660,7 @@
       <c r="AB22" s="3">
         <v>0.6</v>
       </c>
-      <c r="AC22" s="33">
+      <c r="AC22" s="32">
         <v>0.7</v>
       </c>
       <c r="AD22" s="3">
@@ -42611,7 +43735,7 @@
       <c r="AB23" s="6">
         <v>0.4</v>
       </c>
-      <c r="AC23" s="33">
+      <c r="AC23" s="32">
         <v>0.7</v>
       </c>
       <c r="AD23" s="6">
@@ -42686,7 +43810,7 @@
       <c r="AB24" s="4">
         <v>0.9</v>
       </c>
-      <c r="AC24" s="33">
+      <c r="AC24" s="32">
         <v>0.9</v>
       </c>
       <c r="AD24" s="4">
@@ -42761,7 +43885,7 @@
       <c r="AB25" s="4">
         <v>0.9</v>
       </c>
-      <c r="AC25" s="33">
+      <c r="AC25" s="32">
         <v>0.7</v>
       </c>
       <c r="AD25" s="4">
@@ -42836,7 +43960,7 @@
       <c r="AB26" s="6">
         <v>0.6</v>
       </c>
-      <c r="AC26" s="33">
+      <c r="AC26" s="32">
         <v>0.9</v>
       </c>
       <c r="AD26" s="6">
@@ -42911,7 +44035,7 @@
       <c r="AB27" s="4">
         <v>0.9</v>
       </c>
-      <c r="AC27" s="33">
+      <c r="AC27" s="32">
         <v>0.8</v>
       </c>
       <c r="AD27" s="4">
@@ -42986,7 +44110,7 @@
       <c r="AB28" s="6">
         <v>0.6</v>
       </c>
-      <c r="AC28" s="33">
+      <c r="AC28" s="32">
         <v>0.8</v>
       </c>
       <c r="AD28" s="6">
@@ -42995,13 +44119,13 @@
       <c r="AE28" s="6">
         <v>0.7</v>
       </c>
-      <c r="AF28" s="41">
+      <c r="AF28" s="40">
         <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="AB29" s="7"/>
-      <c r="AC29" s="34"/>
+      <c r="AC29" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -43017,7 +44141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4671DF2E-ACA9-4AA3-9BBE-1EDA009B45C2}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>

--- a/scales (1).xlsx
+++ b/scales (1).xlsx
@@ -8,21 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{B914EDA1-77C5-461D-A00A-6846069D2950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B14BF6-8681-4F3D-AAC8-73CFBC85C2D4}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{B914EDA1-77C5-461D-A00A-6846069D2950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0089D634-FC17-448B-B971-4915CA3C55E4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="380" yWindow="980" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1C93D8EF-CAD7-4EAE-B1C5-75E4D8BB4709}"/>
   </bookViews>
   <sheets>
     <sheet name="BIS-10" sheetId="1" r:id="rId1"/>
     <sheet name="BPS" sheetId="2" r:id="rId2"/>
     <sheet name="Perso" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">BPS!$N$2:$N$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">BPS!$O$2:$O$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">BPS!$N$2:$N$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">BPS!$O$2:$O$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -505,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -542,9 +536,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1897,10 +1888,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$E$2:$E$8</c:f>
+              <c:f>BPS!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -1914,12 +1905,78 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1927,10 +1984,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$M$2:$M$8</c:f>
+              <c:f>BPS!$M$2:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.33</c:v>
                 </c:pt>
@@ -1944,12 +2001,15 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -2289,10 +2349,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$E$2:$E$8</c:f>
+              <c:f>BPS!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -2306,12 +2366,78 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2319,10 +2445,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$J$2:$J$8</c:f>
+              <c:f>BPS!$J$2:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.49</c:v>
                 </c:pt>
@@ -2332,13 +2458,13 @@
                 <c:pt idx="2">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -2691,44 +2817,44 @@
                 <c:pt idx="2">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>820.36</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>440.17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>641.14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>724.29</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>757.59</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>771.81</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>803.62</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>828.46</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>939.92</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>952.27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1127.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1129.94</c:v>
@@ -2782,46 +2908,46 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.30681818181818182</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.1</c:v>
@@ -3191,10 +3317,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$B$2:$B$8</c:f>
+              <c:f>BPS!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -3208,23 +3334,89 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$K$2:$K$8</c:f>
+              <c:f>BPS!$K$2:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.08</c:v>
                 </c:pt>
@@ -3237,13 +3429,13 @@
                 <c:pt idx="3">
                   <c:v>0.27</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -3598,46 +3790,46 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>92</c:v>
@@ -3690,41 +3882,41 @@
                 <c:pt idx="2">
                   <c:v>0.19488530843536417</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.2635723605504261</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.27130752388374324</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.22618618391532119</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.1475549402808192</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.20500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.215</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.16499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.16</c:v>
@@ -4095,10 +4287,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$B$2:$B$8</c:f>
+              <c:f>BPS!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>104</c:v>
                 </c:pt>
@@ -4112,23 +4304,89 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$P$2:$P$8</c:f>
+              <c:f>BPS!$P$2:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -4138,13 +4396,13 @@
                 <c:pt idx="3">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.19</c:v>
                 </c:pt>
               </c:numCache>
@@ -4484,10 +4742,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$K$2:$K$8</c:f>
+              <c:f>BPS!$K$2:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.08</c:v>
                 </c:pt>
@@ -4500,13 +4758,13 @@
                 <c:pt idx="3">
                   <c:v>0.27</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -4514,10 +4772,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$P$2:$P$8</c:f>
+              <c:f>BPS!$P$2:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -4527,13 +4785,13 @@
                 <c:pt idx="3">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.19</c:v>
                 </c:pt>
               </c:numCache>
@@ -4872,10 +5130,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$J$2:$J$8</c:f>
+              <c:f>BPS!$J$2:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.49</c:v>
                 </c:pt>
@@ -4885,13 +5143,13 @@
                 <c:pt idx="2">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -4899,10 +5157,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$M$2:$M$8</c:f>
+              <c:f>BPS!$M$2:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.33</c:v>
                 </c:pt>
@@ -4916,12 +5174,15 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -5272,44 +5533,44 @@
                 <c:pt idx="2">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>820.36</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>440.17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>641.14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>724.29</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>757.59</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>771.81</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>803.62</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>828.46</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>939.92</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>952.27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1127.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1129.94</c:v>
@@ -5362,41 +5623,41 @@
                 <c:pt idx="2" formatCode="General">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.48863636363636365</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="11" formatCode="General">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="13" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="14" formatCode="General">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.7</c:v>
@@ -5754,10 +6015,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>BPS!$C$2:$C$8</c:f>
+              <c:f>BPS!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>555.07000000000005</c:v>
                 </c:pt>
@@ -5767,21 +6028,87 @@
                 <c:pt idx="2">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>820.36</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>808.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>440.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>641.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>724.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>757.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>771.81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>803.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>828.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>939.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>952.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1012.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1129.94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1183.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1250.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1264.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1266.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1276.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1333.71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1394.13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1411.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1627.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BPS!$K$2:$K$8</c:f>
+              <c:f>BPS!$K$2:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.08</c:v>
                 </c:pt>
@@ -5794,13 +6121,13 @@
                 <c:pt idx="3">
                   <c:v>0.27</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -6623,12 +6950,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -6655,13 +6979,13 @@
                 <c:pt idx="3">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.19</c:v>
                 </c:pt>
               </c:numCache>
@@ -6685,41 +7009,41 @@
                 <c:pt idx="3">
                   <c:v>0.36363636363636365</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.43181818181818182</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="11" formatCode="General">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="13" formatCode="General">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="14" formatCode="General">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>0.1</c:v>
@@ -18817,7 +19141,7 @@
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="8"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -18836,7 +19160,7 @@
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
-            <c:idx val="13"/>
+            <c:idx val="14"/>
             <c:marker>
               <c:symbol val="circle"/>
               <c:size val="5"/>
@@ -18872,6 +19196,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DC0F-4A40-AF4E-1F2E24B73ACF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -18891,6 +19220,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DC0F-4A40-AF4E-1F2E24B73ACF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:trendline>
             <c:spPr>
@@ -18975,46 +19309,46 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>92</c:v>
@@ -19067,44 +19401,44 @@
                 <c:pt idx="2">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>820.36</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>440.17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>641.14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>724.29</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>757.59</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>771.81</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>803.62</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>828.46</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>939.92</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>952.27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1127.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1129.94</c:v>
@@ -19502,46 +19836,46 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>92</c:v>
@@ -19598,46 +19932,46 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>40</c:v>
@@ -19961,6 +20295,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-0175-402E-970C-56EA2F7BF182}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:trendline>
             <c:spPr>
@@ -20041,44 +20380,44 @@
                 <c:pt idx="2">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>820.36</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>440.17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>641.14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>724.29</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>757.59</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>771.81</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>803.62</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>828.46</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>939.92</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>952.27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1127.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1129.94</c:v>
@@ -20135,46 +20474,46 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>40</c:v>
@@ -20557,44 +20896,44 @@
                 <c:pt idx="2">
                   <c:v>727.68</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
+                  <c:v>1127.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>820.36</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>808.85</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>440.17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>641.14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>724.29</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>757.59</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>771.81</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>803.62</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>828.46</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>939.92</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>952.27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1012.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1127.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20618,12 +20957,15 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -20949,7 +21291,7 @@
                     <a:r>
                       <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
+                          <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>y = 0,6217x + 0,038</a:t>
@@ -20957,21 +21299,21 @@
                     <a:br>
                       <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
+                          <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
                     </a:br>
                     <a:r>
                       <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
+                          <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>R² = 0,2725</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" b="1">
                       <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                     </a:endParaRPr>
                   </a:p>
@@ -21019,41 +21361,41 @@
                 <c:pt idx="2">
                   <c:v>0.19138101152556758</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4">
+                  <c:v>0.12621224612068394</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.20468925804491239</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.32061713896859978</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.19490930490111669</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.16367528245775095</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.21375035241977705</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.23816499013968034</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.20154512681321413</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.19022303663769691</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.22856813817382998</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.16120051973703725</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.20957825775177399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.12621224612068394</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.21888721500826658</c:v>
@@ -21106,41 +21448,41 @@
                 <c:pt idx="2">
                   <c:v>0.19488530843536417</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.2635723605504261</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.27130752388374324</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.22618618391532119</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.1475549402808192</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.20500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.215</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.16499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.16</c:v>
@@ -44923,16 +45265,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>194775</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>7695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>206987</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>167746</xdr:rowOff>
+      <xdr:rowOff>94478</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44995,16 +45337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>517406</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>173492</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>615098</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>542647</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>640338</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>46181</xdr:rowOff>
+      <xdr:rowOff>82815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45211,16 +45553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>421909</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>112713</xdr:rowOff>
+      <xdr:rowOff>63867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>434120</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>188913</xdr:rowOff>
+      <xdr:rowOff>133717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45356,15 +45698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>180732</xdr:colOff>
+      <xdr:colOff>119674</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>112102</xdr:rowOff>
+      <xdr:rowOff>2198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>136770</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>107705</xdr:rowOff>
+      <xdr:colOff>75712</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47480,9 +47822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B14E0-C2FE-425B-8DB8-7A61320A6D39}">
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="52" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P2" activeCellId="1" sqref="AI2:AI31 P2:P31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="52" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47527,13 +47869,13 @@
       <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>66</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -47545,13 +47887,13 @@
       <c r="O1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="38" t="s">
         <v>87</v>
       </c>
       <c r="S1" t="s">
@@ -47590,7 +47932,7 @@
       <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AF1" s="24" t="s">
@@ -47599,15 +47941,15 @@
       <c r="AG1" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AH1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AI1" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:35" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="58" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="12">
@@ -47659,7 +48001,7 @@
       <c r="Q2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R2" s="42">
+      <c r="R2" s="41">
         <v>0.1</v>
       </c>
       <c r="S2">
@@ -47701,7 +48043,7 @@
       <c r="AE2" s="6">
         <v>0.7</v>
       </c>
-      <c r="AF2" s="27">
+      <c r="AF2" s="26">
         <v>0.8</v>
       </c>
       <c r="AG2" s="6">
@@ -47715,7 +48057,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B3">
@@ -47751,12 +48093,12 @@
       <c r="K3">
         <v>0.18</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="52">
         <v>0.36</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
       <c r="S3">
         <f>2+3+3+2+2+2+3+1+4+3+2</f>
         <v>27</v>
@@ -47797,28 +48139,28 @@
       <c r="AD3">
         <v>9.4318181818181829E-2</v>
       </c>
-      <c r="AE3" s="61">
+      <c r="AE3" s="60">
         <f>3.7/88</f>
         <v>4.2045454545454546E-2</v>
       </c>
-      <c r="AF3" s="62">
+      <c r="AF3" s="61">
         <v>3.2954545454545452E-2</v>
       </c>
-      <c r="AG3" s="61">
+      <c r="AG3" s="60">
         <f>1.6/88</f>
         <v>1.8181818181818184E-2</v>
       </c>
-      <c r="AH3" s="63">
+      <c r="AH3" s="62">
         <f>7.6/88</f>
         <v>8.6363636363636365E-2</v>
       </c>
-      <c r="AI3" s="64">
+      <c r="AI3" s="63">
         <f>0.2/88</f>
         <v>2.2727272727272731E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="8">
@@ -47950,12 +48292,12 @@
         <v>0.27</v>
       </c>
       <c r="L5" s="8"/>
-      <c r="M5" s="49">
+      <c r="M5" s="48">
         <v>0.38</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50">
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49">
         <v>0.17</v>
       </c>
       <c r="Q5" s="8">
@@ -47968,994 +48310,1003 @@
       <c r="AF5" s="25"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="13"/>
-      <c r="AI5" s="41">
+      <c r="AI5" s="40">
         <f>0.32/0.88</f>
         <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
-        <v>85</v>
+      <c r="A6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>128</v>
-      </c>
-      <c r="D6" s="35">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>1127.92</v>
+      </c>
+      <c r="D6">
         <f>ABS(C6-(6.1511*B6+348.6))</f>
-        <v>1135.9407999999999</v>
+        <v>41.188000000000102</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>51</v>
-      </c>
-      <c r="J6">
-        <v>0.53</v>
-      </c>
-      <c r="K6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="54">
-        <v>0.41</v>
-      </c>
-      <c r="N6" s="52">
+        <v>56</v>
+      </c>
+      <c r="I6">
+        <v>0.12</v>
+      </c>
+      <c r="M6">
+        <v>0.38</v>
+      </c>
+      <c r="N6">
         <v>0.13</v>
       </c>
-      <c r="O6" s="52">
-        <v>0.15</v>
-      </c>
-      <c r="P6" s="52">
-        <v>0.05</v>
-      </c>
-      <c r="Q6">
-        <v>0.22</v>
-      </c>
-      <c r="R6">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="8"/>
+      <c r="O6">
+        <v>0.12</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>18</v>
+      </c>
+      <c r="U6">
+        <v>26</v>
+      </c>
+      <c r="V6">
+        <v>56</v>
+      </c>
+      <c r="W6">
+        <v>1127.92</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.12621224612068394</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>33</v>
+      </c>
       <c r="AD6">
+        <v>0.6</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AF6" s="25">
         <v>0.4</v>
       </c>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
+      <c r="AG6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="36">
+      <c r="A7" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="36">
-        <v>820.36</v>
-      </c>
-      <c r="D7" s="45">
+      <c r="B7">
+        <v>128</v>
+      </c>
+      <c r="D7" s="34">
         <f>ABS(C7-(6.1511*B7+348.6))</f>
-        <v>51.083499999999958</v>
-      </c>
-      <c r="E7" s="36">
-        <v>13</v>
-      </c>
-      <c r="F7" s="36">
+        <v>1135.9407999999999</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7" s="36">
-        <v>18</v>
-      </c>
-      <c r="H7" s="36">
-        <v>41</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <v>0.64</v>
-      </c>
-      <c r="K7" s="36">
-        <v>0.06</v>
-      </c>
-      <c r="L7" s="36">
+      <c r="H7">
+        <v>51</v>
+      </c>
+      <c r="J7">
+        <v>0.53</v>
+      </c>
+      <c r="K7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="36">
-        <v>0.43</v>
-      </c>
-      <c r="N7" s="36">
+      <c r="M7" s="53">
+        <v>0.41</v>
+      </c>
+      <c r="N7" s="51">
+        <v>0.13</v>
+      </c>
+      <c r="O7" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="P7" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="Q7">
+        <v>0.22</v>
+      </c>
+      <c r="R7">
         <v>0.1</v>
       </c>
-      <c r="O7" s="36">
-        <v>0.12</v>
-      </c>
-      <c r="P7" s="36">
-        <v>0.08</v>
-      </c>
-      <c r="Q7" s="36">
-        <v>0.27</v>
-      </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="3"/>
+      <c r="AD7">
+        <v>0.4</v>
+      </c>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="35">
+        <v>85</v>
+      </c>
+      <c r="C8" s="35">
+        <v>820.36</v>
+      </c>
+      <c r="D8" s="44">
+        <f>ABS(C8-(6.1511*B8+348.6))</f>
+        <v>51.083499999999958</v>
+      </c>
+      <c r="E8" s="35">
+        <v>13</v>
+      </c>
+      <c r="F8" s="35">
+        <v>10</v>
+      </c>
+      <c r="G8" s="35">
+        <v>18</v>
+      </c>
+      <c r="H8" s="35">
+        <v>41</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35">
+        <v>0.64</v>
+      </c>
+      <c r="K8" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0</v>
+      </c>
+      <c r="M8" s="35">
+        <v>0.43</v>
+      </c>
+      <c r="N8" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="35">
+        <v>0.12</v>
+      </c>
+      <c r="P8" s="35">
+        <v>0.08</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>0.27</v>
+      </c>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>3+7+4+2+5+4+7+5+7+4+4+4+4+1+3+1+2+3+7+4+2+7+7+4+5+7+4+4</f>
         <v>121</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>808.85</v>
       </c>
-      <c r="D8">
-        <f>ABS(C8-(6.1511*B8+348.6))</f>
+      <c r="D9">
+        <f>ABS(C9-(6.1511*B9+348.6))</f>
         <v>284.03309999999999</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>22</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>22</v>
       </c>
-      <c r="H8">
-        <f>SUM(E8:G8)</f>
+      <c r="H9">
+        <f>SUM(E9:G9)</f>
         <v>59</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.2</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>0.81</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>0</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M9" s="50">
         <v>0.47</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52">
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51">
         <v>0.19</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>0.1</v>
       </c>
-      <c r="S8">
+      <c r="S9">
         <v>15</v>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>3+4+4+4+0+1+1+0+1+4+0</f>
         <v>22</v>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>3+0+3+1+3+4+0+1+3+0+3+1</f>
         <v>22</v>
       </c>
-      <c r="V8">
-        <f>SUM(S8:U8)</f>
+      <c r="V9">
+        <f>SUM(S9:U9)</f>
         <v>59</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>808.85</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z9" s="2">
         <v>0.20468925804491239</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA9" s="2">
         <v>0.13</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC9" t="s">
         <v>3</v>
       </c>
-      <c r="AD8">
+      <c r="AD9">
         <v>0.30681818181818182</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AE9" s="19">
         <f>43/88</f>
         <v>0.48863636363636365</v>
       </c>
-      <c r="AF8" s="33">
+      <c r="AF9" s="32">
         <v>0.89772727272727271</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AG9" s="19">
         <f>39/88</f>
         <v>0.44318181818181818</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AH9" s="19">
         <f>75/88</f>
         <v>0.85227272727272729</v>
       </c>
-      <c r="AI8" s="30">
+      <c r="AI9" s="29">
         <f>38/88</f>
         <v>0.43181818181818182</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B10" s="10">
         <v>119</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C10" s="10">
         <v>440.17</v>
-      </c>
-      <c r="D9">
-        <f>ABS(C9-(6.1511*B9+348.6))</f>
-        <v>640.41089999999986</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>23</v>
-      </c>
-      <c r="H9" s="10">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>0.32</v>
-      </c>
-      <c r="S9">
-        <v>14</v>
-      </c>
-      <c r="T9">
-        <v>18</v>
-      </c>
-      <c r="U9">
-        <v>23</v>
-      </c>
-      <c r="V9">
-        <v>55</v>
-      </c>
-      <c r="W9">
-        <v>440.17</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0.32061713896859978</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0.2635723605504261</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD9">
-        <v>0.4</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="AF9" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="AG9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>91</v>
-      </c>
-      <c r="C10">
-        <v>641.14</v>
       </c>
       <c r="D10">
         <f>ABS(C10-(6.1511*B10+348.6))</f>
-        <v>267.21010000000001</v>
+        <v>640.41089999999986</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10" s="10">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>0.32</v>
+      </c>
+      <c r="S10">
         <v>14</v>
       </c>
-      <c r="H10">
-        <v>51</v>
-      </c>
-      <c r="I10">
-        <v>0.19</v>
-      </c>
-      <c r="S10">
-        <v>21</v>
-      </c>
       <c r="T10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="V10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W10">
-        <v>641.14</v>
+        <v>440.17</v>
       </c>
       <c r="Z10" s="2">
-        <v>0.19490930490111669</v>
+        <v>0.32061713896859978</v>
       </c>
       <c r="AA10" s="2">
-        <v>0.27130752388374324</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>37</v>
+        <v>0.2635723605504261</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="AC10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AD10">
+        <v>0.4</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AF10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AG10" s="6">
         <v>0.2</v>
       </c>
-      <c r="AE10" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="AF10" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="AG10" s="5">
+      <c r="AH10" s="6">
         <v>0.3</v>
       </c>
-      <c r="AH10" s="5">
-        <v>0.3</v>
-      </c>
       <c r="AI10" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>47</v>
+      <c r="A11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C11">
-        <v>724.29</v>
+        <v>641.14</v>
       </c>
       <c r="D11">
         <f>ABS(C11-(6.1511*B11+348.6))</f>
-        <v>337.83759999999984</v>
+        <v>267.21010000000001</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I11">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="S11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V11">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="W11">
-        <v>724.29</v>
+        <v>641.14</v>
       </c>
       <c r="Z11" s="2">
-        <v>0.16367528245775095</v>
+        <v>0.19490930490111669</v>
       </c>
       <c r="AA11" s="2">
+        <v>0.27130752388374324</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD11">
         <v>0.2</v>
       </c>
-      <c r="AB11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD11">
-        <v>0.6</v>
-      </c>
       <c r="AE11" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF11" s="26">
         <v>0.9</v>
-      </c>
-      <c r="AF11" s="27">
-        <v>0.4</v>
       </c>
       <c r="AG11" s="5">
         <v>0.3</v>
       </c>
       <c r="AH11" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI11" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>58</v>
+      <c r="A12" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="B12">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C12">
-        <v>757.59</v>
+        <v>724.29</v>
       </c>
       <c r="D12">
         <f>ABS(C12-(6.1511*B12+348.6))</f>
-        <v>230.72439999999995</v>
+        <v>337.83759999999984</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I12">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="S12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="U12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V12">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="W12">
-        <v>757.59</v>
+        <v>724.29</v>
       </c>
       <c r="Z12" s="2">
-        <v>0.21375035241977705</v>
+        <v>0.16367528245775095</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>58</v>
+        <v>0.2</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="AC12" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AD12">
-        <v>0.1</v>
-      </c>
-      <c r="AE12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AE12" s="5">
         <v>0.9</v>
       </c>
-      <c r="AF12" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="AG12" s="4">
+      <c r="AF12" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AG12" s="5">
         <v>0.3</v>
       </c>
-      <c r="AH12" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>0.2</v>
+      <c r="AH12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C13">
-        <v>771.81</v>
+        <v>757.59</v>
       </c>
       <c r="D13">
         <f>ABS(C13-(6.1511*B13+348.6))</f>
-        <v>50.42470000000003</v>
+        <v>230.72439999999995</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I13">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="S13">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="T13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="U13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V13">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="W13">
-        <v>771.81</v>
+        <v>757.59</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.23816499013968034</v>
+        <v>0.21375035241977705</v>
       </c>
       <c r="AA13" s="2">
-        <v>0.22618618391532119</v>
+        <v>0.22</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC13" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AD13">
+        <v>0.1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AF13" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AI13" s="4">
         <v>0.2</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AF13" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="AG13" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AH13" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AI13" s="5">
-        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>57</v>
+      <c r="A14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C14">
-        <v>803.62</v>
+        <v>771.81</v>
       </c>
       <c r="D14">
         <f>ABS(C14-(6.1511*B14+348.6))</f>
-        <v>129.33449999999993</v>
+        <v>50.42470000000003</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <v>47</v>
       </c>
       <c r="I14">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="S14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V14">
         <v>47</v>
       </c>
       <c r="W14">
-        <v>803.62</v>
+        <v>771.81</v>
       </c>
       <c r="Z14" s="2">
-        <v>0.20154512681321413</v>
+        <v>0.23816499013968034</v>
       </c>
       <c r="AA14" s="2">
-        <v>0.1475549402808192</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>57</v>
+        <v>0.22618618391532119</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="AC14" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AD14">
-        <v>0.1</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="AG14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AE14" s="6">
         <v>0.6</v>
       </c>
-      <c r="AH14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AI14" s="4">
+      <c r="AF14" s="26">
         <v>0.8</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C15">
-        <v>828.46</v>
+        <v>803.62</v>
       </c>
       <c r="D15">
         <f>ABS(C15-(6.1511*B15+348.6))</f>
-        <v>42.983499999999935</v>
+        <v>129.33449999999993</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I15">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="S15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T15">
         <v>14</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="V15">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W15">
-        <v>828.46</v>
+        <v>803.62</v>
       </c>
       <c r="Z15" s="2">
-        <v>0.19022303663769691</v>
+        <v>0.20154512681321413</v>
       </c>
       <c r="AA15" s="2">
-        <v>0.20500000000000002</v>
+        <v>0.1475549402808192</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AD15">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="AG15" s="3">
         <v>0.6</v>
       </c>
-      <c r="AF15" s="27">
-        <v>0.7</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>0.2</v>
-      </c>
       <c r="AH15" s="3">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AI15" s="4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>43</v>
+      <c r="A16" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C16">
-        <v>939.92</v>
+        <v>828.46</v>
       </c>
       <c r="D16">
         <f>ABS(C16-(6.1511*B16+348.6))</f>
-        <v>19.267699999999991</v>
+        <v>42.983499999999935</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I16">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="S16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V16">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W16">
-        <v>939.92</v>
+        <v>828.46</v>
       </c>
       <c r="Z16" s="2">
-        <v>0.22856813817382998</v>
+        <v>0.19022303663769691</v>
       </c>
       <c r="AA16" s="2">
-        <v>0.215</v>
+        <v>0.20500000000000002</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AD16">
+        <v>0.5</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AF16" s="26">
         <v>0.7</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AG16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH16" s="3">
         <v>0.6</v>
       </c>
-      <c r="AF16" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AH16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AI16" s="5">
-        <v>0.3</v>
+      <c r="AI16" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
+      <c r="A17" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C17">
-        <v>952.27</v>
+        <v>939.92</v>
       </c>
       <c r="D17">
         <f>ABS(C17-(6.1511*B17+348.6))</f>
-        <v>85.253200000000106</v>
+        <v>19.267699999999991</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I17">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="S17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T17">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="V17">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="W17">
-        <v>952.27</v>
+        <v>939.92</v>
       </c>
       <c r="Z17" s="2">
-        <v>0.16120051973703725</v>
+        <v>0.22856813817382998</v>
       </c>
       <c r="AA17" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>0.215</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AD17">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AE17" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="AF17" s="27">
-        <v>0.8</v>
+        <v>0.6</v>
+      </c>
+      <c r="AF17" s="26">
+        <v>0.6</v>
       </c>
       <c r="AG17" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AH17" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AI17" s="5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
+      <c r="A18" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C18">
-        <v>1012.32</v>
+        <v>952.27</v>
       </c>
       <c r="D18">
         <f>ABS(C18-(6.1511*B18+348.6))</f>
-        <v>129.77189999999985</v>
+        <v>85.253200000000106</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I18">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="S18">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="T18">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V18">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="W18">
-        <v>1012.32</v>
+        <v>952.27</v>
       </c>
       <c r="Z18" s="2">
-        <v>0.20957825775177399</v>
+        <v>0.16120051973703725</v>
       </c>
       <c r="AA18" s="2">
-        <v>0.16499999999999998</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>38</v>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="AC18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD18">
+        <v>0.2</v>
+      </c>
+      <c r="AE18" s="5">
         <v>0.8</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AF18" s="26">
         <v>0.8</v>
       </c>
-      <c r="AF18" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="AG18" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="AH18" s="6">
-        <v>0.9</v>
+      <c r="AG18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>0.4</v>
       </c>
       <c r="AI18" s="5">
         <v>0.7</v>
@@ -48963,77 +49314,77 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C19">
-        <v>1127.92</v>
+        <v>1012.32</v>
       </c>
       <c r="D19">
         <f>ABS(C19-(6.1511*B19+348.6))</f>
-        <v>41.188000000000102</v>
+        <v>129.77189999999985</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>0.21</v>
+      </c>
+      <c r="S19">
+        <v>27</v>
+      </c>
+      <c r="T19">
         <v>26</v>
       </c>
-      <c r="H19">
-        <v>56</v>
-      </c>
-      <c r="I19">
-        <v>0.12</v>
-      </c>
-      <c r="S19">
-        <v>12</v>
-      </c>
-      <c r="T19">
-        <v>18</v>
-      </c>
       <c r="U19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="V19">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="W19">
-        <v>1127.92</v>
+        <v>1012.32</v>
       </c>
       <c r="Z19" s="2">
-        <v>0.12621224612068394</v>
+        <v>0.20957825775177399</v>
       </c>
       <c r="AA19" s="2">
-        <v>0.155</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AD19">
-        <v>0.6</v>
-      </c>
-      <c r="AE19" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AF19" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AI19" s="5">
         <v>0.7</v>
-      </c>
-      <c r="AF19" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AH19" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI19" s="5">
-        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.35">
@@ -49098,7 +49449,7 @@
       <c r="AE20" s="5">
         <v>0.7</v>
       </c>
-      <c r="AF20" s="27">
+      <c r="AF20" s="26">
         <v>1</v>
       </c>
       <c r="AG20" s="5">
@@ -49173,7 +49524,7 @@
       <c r="AE21" s="5">
         <v>0.9</v>
       </c>
-      <c r="AF21" s="27">
+      <c r="AF21" s="26">
         <v>0.8</v>
       </c>
       <c r="AG21" s="5">
@@ -49248,7 +49599,7 @@
       <c r="AE22" s="4">
         <v>0.9</v>
       </c>
-      <c r="AF22" s="27">
+      <c r="AF22" s="26">
         <v>0.8</v>
       </c>
       <c r="AG22" s="4">
@@ -49323,7 +49674,7 @@
       <c r="AE23" s="6">
         <v>0.4</v>
       </c>
-      <c r="AF23" s="27">
+      <c r="AF23" s="26">
         <v>0.7</v>
       </c>
       <c r="AG23" s="6">
@@ -49398,7 +49749,7 @@
       <c r="AE24" s="6">
         <v>0.9</v>
       </c>
-      <c r="AF24" s="27">
+      <c r="AF24" s="26">
         <v>0.6</v>
       </c>
       <c r="AG24" s="6">
@@ -49473,7 +49824,7 @@
       <c r="AE25" s="6">
         <v>0.8</v>
       </c>
-      <c r="AF25" s="27">
+      <c r="AF25" s="26">
         <v>0.9</v>
       </c>
       <c r="AG25" s="6">
@@ -49548,7 +49899,7 @@
       <c r="AE26" s="6">
         <v>0.6</v>
       </c>
-      <c r="AF26" s="27">
+      <c r="AF26" s="26">
         <v>0.8</v>
       </c>
       <c r="AG26" s="6">
@@ -49623,7 +49974,7 @@
       <c r="AE27" s="6">
         <v>0.6</v>
       </c>
-      <c r="AF27" s="27">
+      <c r="AF27" s="26">
         <v>0.9</v>
       </c>
       <c r="AG27" s="6">
@@ -49698,7 +50049,7 @@
       <c r="AE28" s="4">
         <v>0.9</v>
       </c>
-      <c r="AF28" s="27">
+      <c r="AF28" s="26">
         <v>0.7</v>
       </c>
       <c r="AG28" s="4">
@@ -49773,7 +50124,7 @@
       <c r="AE29" s="5">
         <v>0.9</v>
       </c>
-      <c r="AF29" s="27">
+      <c r="AF29" s="26">
         <v>0.8</v>
       </c>
       <c r="AG29" s="5">
@@ -49787,7 +50138,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="9">
@@ -49848,7 +50199,7 @@
       <c r="AE30" s="5">
         <v>0.5</v>
       </c>
-      <c r="AF30" s="27">
+      <c r="AF30" s="26">
         <v>0.2</v>
       </c>
       <c r="AG30" s="5">
@@ -49857,12 +50208,12 @@
       <c r="AH30" s="5">
         <v>0.5</v>
       </c>
-      <c r="AI30" s="32">
+      <c r="AI30" s="31">
         <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="55" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="8"/>
@@ -49881,12 +50232,12 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8">
-        <f>AVERAGE(N4:N8)</f>
-        <v>0.15333333333333332</v>
+        <f>AVERAGE(N2:N30)</f>
+        <v>0.13400000000000001</v>
       </c>
       <c r="O31" s="8">
-        <f>AVERAGE(O4:O8)</f>
-        <v>0.12666666666666668</v>
+        <f>AVERAGE(O2:O30)</f>
+        <v>0.11599999999999999</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -49898,16 +50249,16 @@
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="56"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="55"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="67"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -50041,83 +50392,83 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46">
         <v>0.2</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="46">
         <v>0.2</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <v>0.7</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="46">
         <v>0.9</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="46">
         <v>0.2</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="46">
         <v>0.5</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="46">
         <v>0.6</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="46">
         <v>0.1</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="46">
         <v>0.7</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="46">
         <v>0.5</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="46">
         <v>0.4</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="46">
         <v>0.1</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="46">
         <v>0.2</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="46">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="47">
+      <c r="Q2" s="46">
         <v>0.5</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="48">
+      <c r="S2" s="47">
         <v>0.1</v>
       </c>
-      <c r="T2" s="48">
+      <c r="T2" s="47">
         <v>0.8</v>
       </c>
-      <c r="U2" s="48">
+      <c r="U2" s="47">
         <v>0.1</v>
       </c>
-      <c r="V2" s="48">
+      <c r="V2" s="47">
         <v>0.1</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="31">
+      <c r="X2" s="30">
         <v>0.6</v>
       </c>
-      <c r="Y2" s="31">
+      <c r="Y2" s="30">
         <v>0.2</v>
       </c>
-      <c r="Z2" s="48">
+      <c r="Z2" s="47">
         <v>0.1</v>
       </c>
-      <c r="AA2" s="47">
+      <c r="AA2" s="46">
         <v>0.1</v>
       </c>
     </row>
@@ -50401,10 +50752,10 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="19">
         <v>0.3</v>
       </c>
@@ -50453,7 +50804,7 @@
       <c r="R6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="58">
+      <c r="S6" s="57">
         <v>0.3</v>
       </c>
       <c r="T6" s="19">
@@ -50468,10 +50819,10 @@
       <c r="W6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="29">
         <v>0.4</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="42">
         <v>0.5</v>
       </c>
       <c r="Z6" s="19">
